--- a/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1121_Cap nhat don vi.xlsx
+++ b/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1121_Cap nhat don vi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\01 QL DonVi-ChiNhanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" tabRatio="836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -471,6 +471,7 @@
   <authors>
     <author>Le Thi Thu Hien</author>
     <author>vinhphong</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0">
@@ -753,6 +754,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="O7" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Xử lý khi sửa thì Disable hay enable?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O30" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Giá trị load  chết cho combo này phải giống nhau</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -885,6 +935,7 @@
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="D4" authorId="0" shapeId="0">
@@ -1003,6 +1054,130 @@
         </r>
       </text>
     </comment>
+    <comment ref="G6" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Combo load 2 cột ID và Name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu xử lý dùng chung
+Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu xử lý dùng chung
+Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu xử lý dùng chung
+Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu xử lý dùng chung
+Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1012,6 +1187,7 @@
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -1226,6 +1402,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J51" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Form KPIF1041 ở đâu ra?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2893,13 +3093,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3030,6 +3230,19 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3301,7 +3514,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3666,6 +3879,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3691,9 +3913,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3784,15 +4003,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3804,8 +4014,23 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3815,6 +4040,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3834,6 +4062,10 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2" xfId="2"/>
@@ -3880,6 +4112,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3933,6 +4168,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5143"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3985,6 +4223,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5144"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4020,15 +4261,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>593912</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>68090</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>2274794</xdr:colOff>
+          <xdr:colOff>2276475</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>149868</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4036,6 +4277,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4056,23 +4300,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4100,7 +4331,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4113,7 +4350,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4163,7 +4406,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+          <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="8" idx="3"/>
             <a:endCxn id="9" idx="1"/>
@@ -4198,7 +4447,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 3"/>
+          <xdr:cNvPr id="5" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4277,7 +4532,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="5" idx="3"/>
             <a:endCxn id="15" idx="1"/>
@@ -4312,7 +4573,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4362,7 +4629,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Flowchart: Decision 7"/>
+          <xdr:cNvPr id="8" name="Flowchart: Decision 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4405,7 +4678,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Flowchart: Direct Access Storage 8"/>
+          <xdr:cNvPr id="9" name="Flowchart: Direct Access Storage 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4498,7 +4777,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4629,7 +4914,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 3"/>
+          <xdr:cNvPr id="11" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4712,7 +5003,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="9" idx="4"/>
             <a:endCxn id="11" idx="1"/>
@@ -4747,7 +5044,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+          <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="8" idx="2"/>
             <a:endCxn id="10" idx="0"/>
@@ -4782,7 +5085,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Flowchart: Decision 14"/>
+          <xdr:cNvPr id="15" name="Flowchart: Decision 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4825,7 +5134,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvPr id="16" name="Rectangle 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4947,7 +5262,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+          <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="15" idx="2"/>
             <a:endCxn id="16" idx="0"/>
@@ -4982,7 +5303,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="15" idx="3"/>
             <a:endCxn id="8" idx="1"/>
@@ -5017,7 +5344,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="TextBox 18"/>
+          <xdr:cNvPr id="19" name="TextBox 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5067,7 +5400,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 19"/>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5133,7 +5472,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="Group 20"/>
+        <xdr:cNvPr id="21" name="Group 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5146,7 +5491,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="TextBox 21"/>
+          <xdr:cNvPr id="22" name="TextBox 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5196,7 +5547,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+          <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="27" idx="3"/>
             <a:endCxn id="28" idx="1"/>
@@ -5231,7 +5588,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectangle 3"/>
+          <xdr:cNvPr id="24" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5321,7 +5684,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+          <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="24" idx="3"/>
             <a:endCxn id="34" idx="1"/>
@@ -5356,7 +5725,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="TextBox 25"/>
+          <xdr:cNvPr id="26" name="TextBox 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5406,7 +5781,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="Flowchart: Decision 26"/>
+          <xdr:cNvPr id="27" name="Flowchart: Decision 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5449,7 +5830,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Flowchart: Direct Access Storage 27"/>
+          <xdr:cNvPr id="28" name="Flowchart: Direct Access Storage 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5542,7 +5929,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle 28"/>
+          <xdr:cNvPr id="29" name="Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5664,7 +6057,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Rectangle 3"/>
+          <xdr:cNvPr id="30" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5750,7 +6149,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+          <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="28" idx="4"/>
             <a:endCxn id="30" idx="1"/>
@@ -5785,7 +6190,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+          <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="27" idx="2"/>
             <a:endCxn id="29" idx="0"/>
@@ -5820,7 +6231,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Flowchart: Decision 33"/>
+          <xdr:cNvPr id="34" name="Flowchart: Decision 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5863,7 +6280,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Rectangle 34"/>
+          <xdr:cNvPr id="35" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5985,7 +6408,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+          <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="34" idx="2"/>
             <a:endCxn id="35" idx="0"/>
@@ -6020,7 +6449,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+          <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="34" idx="3"/>
             <a:endCxn id="27" idx="1"/>
@@ -6055,7 +6490,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="TextBox 37"/>
+          <xdr:cNvPr id="38" name="TextBox 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6105,7 +6546,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="TextBox 38"/>
+          <xdr:cNvPr id="39" name="TextBox 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6171,7 +6618,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="Group 39"/>
+        <xdr:cNvPr id="40" name="Group 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6184,7 +6637,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="TextBox 40"/>
+          <xdr:cNvPr id="41" name="TextBox 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6234,7 +6693,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+          <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="46" idx="3"/>
             <a:endCxn id="47" idx="1"/>
@@ -6269,7 +6734,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="Rectangle 3"/>
+          <xdr:cNvPr id="43" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6359,7 +6830,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+          <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="43" idx="3"/>
             <a:endCxn id="59" idx="1"/>
@@ -6394,7 +6871,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="TextBox 44"/>
+          <xdr:cNvPr id="45" name="TextBox 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6444,7 +6927,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Flowchart: Decision 45"/>
+          <xdr:cNvPr id="46" name="Flowchart: Decision 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6487,7 +6976,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="Flowchart: Direct Access Storage 46"/>
+          <xdr:cNvPr id="47" name="Flowchart: Direct Access Storage 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6580,7 +7075,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="Rectangle 47"/>
+          <xdr:cNvPr id="48" name="Rectangle 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6702,7 +7203,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Rectangle 3"/>
+          <xdr:cNvPr id="49" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6788,7 +7295,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+          <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="47" idx="4"/>
             <a:endCxn id="49" idx="1"/>
@@ -6823,7 +7336,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
+          <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="46" idx="2"/>
             <a:endCxn id="48" idx="0"/>
@@ -6858,7 +7377,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Flowchart: Decision 52"/>
+          <xdr:cNvPr id="53" name="Flowchart: Decision 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6901,7 +7426,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Rectangle 53"/>
+          <xdr:cNvPr id="54" name="Rectangle 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7023,7 +7554,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+          <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="53" idx="2"/>
             <a:endCxn id="54" idx="0"/>
@@ -7058,7 +7595,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
+          <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="53" idx="3"/>
             <a:endCxn id="46" idx="1"/>
@@ -7093,7 +7636,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="TextBox 56"/>
+          <xdr:cNvPr id="57" name="TextBox 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7143,7 +7692,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="TextBox 57"/>
+          <xdr:cNvPr id="58" name="TextBox 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7193,7 +7748,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="Flowchart: Decision 58"/>
+          <xdr:cNvPr id="59" name="Flowchart: Decision 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7236,7 +7797,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="Flowchart: Decision 59"/>
+          <xdr:cNvPr id="60" name="Flowchart: Decision 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7335,7 +7902,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="61" name="Elbow Connector 60"/>
+          <xdr:cNvPr id="61" name="Elbow Connector 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="59" idx="2"/>
             <a:endCxn id="49" idx="2"/>
@@ -7372,7 +7945,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="62" name="Elbow Connector 61"/>
+          <xdr:cNvPr id="62" name="Elbow Connector 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="2"/>
             <a:endCxn id="49" idx="2"/>
@@ -7409,7 +7988,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+          <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="3"/>
             <a:endCxn id="53" idx="1"/>
@@ -7444,7 +8029,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="64" name="Straight Arrow Connector 63"/>
+          <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="59" idx="3"/>
             <a:endCxn id="60" idx="1"/>
@@ -7479,7 +8070,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="TextBox 64"/>
+          <xdr:cNvPr id="65" name="TextBox 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7529,7 +8126,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="TextBox 65"/>
+          <xdr:cNvPr id="66" name="TextBox 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7579,7 +8182,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="TextBox 66"/>
+          <xdr:cNvPr id="67" name="TextBox 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7629,7 +8238,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="TextBox 67"/>
+          <xdr:cNvPr id="68" name="TextBox 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7695,7 +8310,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="69" name="Group 68"/>
+        <xdr:cNvPr id="69" name="Group 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7708,7 +8329,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="Rectangle 3"/>
+          <xdr:cNvPr id="70" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7798,7 +8425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="Rectangle 3"/>
+          <xdr:cNvPr id="71" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7908,7 +8541,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+          <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="70" idx="3"/>
             <a:endCxn id="74" idx="1"/>
@@ -7943,7 +8582,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="Flowchart: Decision 73"/>
+          <xdr:cNvPr id="74" name="Flowchart: Decision 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7986,7 +8631,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="75" name="Straight Arrow Connector 74"/>
+          <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="74" idx="3"/>
             <a:endCxn id="80" idx="1"/>
@@ -8021,7 +8672,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="Rectangle 75"/>
+          <xdr:cNvPr id="76" name="Rectangle 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8143,7 +8800,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+          <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="74" idx="2"/>
             <a:endCxn id="76" idx="0"/>
@@ -8178,7 +8841,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="TextBox 77"/>
+          <xdr:cNvPr id="78" name="TextBox 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8226,7 +8895,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="TextBox 78"/>
+          <xdr:cNvPr id="79" name="TextBox 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8274,7 +8949,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="Flowchart: Decision 79"/>
+          <xdr:cNvPr id="80" name="Flowchart: Decision 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8338,7 +9019,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="Flowchart: Direct Access Storage 80"/>
+          <xdr:cNvPr id="81" name="Flowchart: Direct Access Storage 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8431,7 +9118,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="TextBox 81"/>
+          <xdr:cNvPr id="82" name="TextBox 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8481,7 +9174,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="Flowchart: Decision 82"/>
+          <xdr:cNvPr id="83" name="Flowchart: Decision 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8545,7 +9244,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="84" name="Straight Arrow Connector 83"/>
+          <xdr:cNvPr id="84" name="Straight Arrow Connector 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="80" idx="3"/>
             <a:endCxn id="83" idx="1"/>
@@ -8580,7 +9285,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+          <xdr:cNvPr id="85" name="Straight Arrow Connector 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="80" idx="2"/>
             <a:endCxn id="87" idx="0"/>
@@ -8615,7 +9326,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+          <xdr:cNvPr id="86" name="Straight Arrow Connector 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="83" idx="2"/>
             <a:endCxn id="88" idx="0"/>
@@ -8650,7 +9367,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Rectangle 86"/>
+          <xdr:cNvPr id="87" name="Rectangle 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8703,7 +9426,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Rectangle 87"/>
+          <xdr:cNvPr id="88" name="Rectangle 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8812,7 +9541,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="TextBox 88"/>
+          <xdr:cNvPr id="89" name="TextBox 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8862,7 +9597,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="TextBox 89"/>
+          <xdr:cNvPr id="90" name="TextBox 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8910,7 +9651,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="TextBox 90"/>
+          <xdr:cNvPr id="91" name="TextBox 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8958,7 +9705,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+          <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="83" idx="3"/>
             <a:endCxn id="81" idx="1"/>
@@ -8993,7 +9746,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="99" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="99" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="81" idx="2"/>
             <a:endCxn id="71" idx="0"/>
@@ -9046,7 +9805,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="105" name="Group 104"/>
+        <xdr:cNvPr id="105" name="Group 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -9059,7 +9824,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="Rectangle 3"/>
+          <xdr:cNvPr id="106" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9149,7 +9920,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="Rectangle 3"/>
+          <xdr:cNvPr id="107" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9218,7 +9995,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="Flowchart: Decision 108"/>
+          <xdr:cNvPr id="109" name="Flowchart: Decision 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9261,7 +10044,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="110" name="Straight Arrow Connector 109"/>
+          <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="109" idx="3"/>
             <a:endCxn id="115" idx="1"/>
@@ -9296,7 +10085,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="Rectangle 110"/>
+          <xdr:cNvPr id="111" name="Rectangle 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9418,7 +10213,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="112" name="Straight Arrow Connector 111"/>
+          <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="109" idx="2"/>
             <a:endCxn id="111" idx="0"/>
@@ -9453,7 +10254,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="TextBox 112"/>
+          <xdr:cNvPr id="113" name="TextBox 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9501,7 +10308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="TextBox 113"/>
+          <xdr:cNvPr id="114" name="TextBox 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9549,7 +10362,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="Flowchart: Decision 114"/>
+          <xdr:cNvPr id="115" name="Flowchart: Decision 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9613,7 +10432,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="Flowchart: Direct Access Storage 115"/>
+          <xdr:cNvPr id="116" name="Flowchart: Direct Access Storage 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9706,7 +10531,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="TextBox 116"/>
+          <xdr:cNvPr id="117" name="TextBox 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9756,7 +10587,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="Flowchart: Decision 117"/>
+          <xdr:cNvPr id="118" name="Flowchart: Decision 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9820,7 +10657,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="Straight Arrow Connector 118"/>
+          <xdr:cNvPr id="119" name="Straight Arrow Connector 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="115" idx="3"/>
             <a:endCxn id="118" idx="1"/>
@@ -9855,7 +10698,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="Straight Arrow Connector 119"/>
+          <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="115" idx="2"/>
             <a:endCxn id="122" idx="0"/>
@@ -9890,7 +10739,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="Straight Arrow Connector 120"/>
+          <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="2"/>
             <a:endCxn id="123" idx="0"/>
@@ -9925,7 +10780,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 121"/>
+          <xdr:cNvPr id="122" name="Rectangle 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9978,7 +10839,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Rectangle 122"/>
+          <xdr:cNvPr id="123" name="Rectangle 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10087,7 +10954,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="TextBox 123"/>
+          <xdr:cNvPr id="124" name="TextBox 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10137,7 +11010,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="TextBox 124"/>
+          <xdr:cNvPr id="125" name="TextBox 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10185,7 +11064,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="TextBox 125"/>
+          <xdr:cNvPr id="126" name="TextBox 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10233,7 +11118,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+          <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="116" idx="1"/>
@@ -10268,7 +11159,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+          <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="116" idx="4"/>
             <a:endCxn id="107" idx="1"/>
@@ -10303,7 +11200,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="135" name="Flowchart: Decision 134"/>
+          <xdr:cNvPr id="135" name="Flowchart: Decision 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10346,7 +11249,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="136" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="136" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="135" idx="0"/>
             <a:endCxn id="107" idx="0"/>
@@ -10383,7 +11292,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="137" name="Flowchart: Decision 136"/>
+          <xdr:cNvPr id="137" name="Flowchart: Decision 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10482,7 +11397,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="138" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="138" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="106" idx="3"/>
             <a:endCxn id="135" idx="1"/>
@@ -10519,7 +11440,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="139" name="Straight Arrow Connector 138"/>
+          <xdr:cNvPr id="139" name="Straight Arrow Connector 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="137" idx="3"/>
             <a:endCxn id="109" idx="1"/>
@@ -10554,7 +11481,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="140" name="Straight Arrow Connector 139"/>
+          <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="135" idx="3"/>
             <a:endCxn id="137" idx="1"/>
@@ -10589,7 +11522,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="141" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="141" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="137" idx="0"/>
             <a:endCxn id="107" idx="0"/>
@@ -10626,7 +11565,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="142" name="TextBox 141"/>
+          <xdr:cNvPr id="142" name="TextBox 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10674,7 +11619,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="TextBox 142"/>
+          <xdr:cNvPr id="143" name="TextBox 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10722,7 +11673,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="TextBox 143"/>
+          <xdr:cNvPr id="144" name="TextBox 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10770,7 +11727,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="145" name="TextBox 144"/>
+          <xdr:cNvPr id="145" name="TextBox 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000091000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10941,6 +11904,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10976,6 +11956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11154,8 +12151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11171,10 +12168,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11201,8 +12198,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11241,14 +12238,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="40">
@@ -11263,14 +12260,14 @@
       <c r="D5" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -11281,12 +12278,12 @@
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -11297,12 +12294,12 @@
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -11313,12 +12310,12 @@
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -11329,12 +12326,12 @@
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -11345,12 +12342,12 @@
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -11361,12 +12358,12 @@
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -11377,12 +12374,12 @@
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -11393,12 +12390,12 @@
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -11409,12 +12406,12 @@
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -11425,12 +12422,12 @@
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -11441,12 +12438,12 @@
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -11457,12 +12454,12 @@
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -11473,12 +12470,12 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -11489,12 +12486,12 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -11505,12 +12502,12 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -11521,12 +12518,12 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -11537,12 +12534,12 @@
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -11553,12 +12550,12 @@
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -11569,12 +12566,12 @@
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -11585,12 +12582,12 @@
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -11601,12 +12598,12 @@
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -11617,12 +12614,12 @@
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -11633,12 +12630,12 @@
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -11649,12 +12646,12 @@
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -11665,12 +12662,12 @@
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -11681,12 +12678,12 @@
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -11697,12 +12694,12 @@
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -11713,12 +12710,12 @@
       </c>
       <c r="C33" s="77"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -11729,12 +12726,12 @@
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -11745,12 +12742,12 @@
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -11761,12 +12758,12 @@
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -11777,12 +12774,12 @@
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -11793,12 +12790,12 @@
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -11809,12 +12806,12 @@
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -11825,12 +12822,12 @@
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -11841,12 +12838,12 @@
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -11857,32 +12854,23 @@
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -11898,14 +12886,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -11930,7 +12927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
@@ -11949,10 +12946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11983,8 +12980,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12015,20 +13012,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="157" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="158"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -12039,10 +13036,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="166" t="s">
+      <c r="I5" s="168" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="167"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -12053,8 +13050,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -12065,8 +13062,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -12077,8 +13074,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -12089,8 +13086,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -12101,8 +13098,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -12113,10 +13110,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="158"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -12127,10 +13124,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="J12" s="161"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -12141,8 +13138,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -12153,8 +13150,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -12165,8 +13162,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="163"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -12177,8 +13174,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="163"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -12189,8 +13186,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="163"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -12201,8 +13198,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="163"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -12213,8 +13210,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -12225,8 +13222,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="163"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -12237,8 +13234,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="163"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -12249,8 +13246,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -12261,8 +13258,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -12273,8 +13270,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -12285,8 +13282,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="163"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -12297,8 +13294,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="163"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -12309,8 +13306,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="163"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -12321,8 +13318,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -12333,8 +13330,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -12345,8 +13342,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -12357,8 +13354,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -12369,8 +13366,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="163"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -12381,8 +13378,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="163"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -12393,8 +13390,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="163"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -12405,8 +13402,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="163"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -12417,8 +13414,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="163"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -12429,8 +13426,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="163"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -12441,8 +13438,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="163"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -12453,8 +13450,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -12465,8 +13462,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="163"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="165"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -12477,8 +13474,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="163"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="165"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -12489,8 +13486,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="165"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -12501,8 +13498,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12634,11 +13631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12662,12 +13659,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12675,15 +13672,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="175" t="s">
+      <c r="G1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="177" t="s">
+      <c r="H1" s="178"/>
+      <c r="I1" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="179"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="181"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -12700,10 +13697,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -12711,16 +13708,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="176"/>
-      <c r="I2" s="177" t="str">
+      <c r="H2" s="178"/>
+      <c r="I2" s="179" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật đơn vị</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -12851,7 +13848,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:15" s="34" customFormat="1" ht="45" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -12884,7 +13881,7 @@
       <c r="L7" s="86"/>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
+      <c r="O7" s="145"/>
     </row>
     <row r="8" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -13695,7 +14692,7 @@
       <c r="N30" s="139">
         <v>0</v>
       </c>
-      <c r="O30" s="62" t="s">
+      <c r="O30" s="144" t="s">
         <v>289</v>
       </c>
     </row>
@@ -13734,7 +14731,7 @@
       <c r="N31" s="139">
         <v>0</v>
       </c>
-      <c r="O31" s="62" t="s">
+      <c r="O31" s="144" t="s">
         <v>290</v>
       </c>
     </row>
@@ -13773,7 +14770,7 @@
       <c r="N32" s="139">
         <v>0</v>
       </c>
-      <c r="O32" s="62" t="s">
+      <c r="O32" s="144" t="s">
         <v>289</v>
       </c>
     </row>
@@ -13812,7 +14809,7 @@
       <c r="N33" s="139">
         <v>0</v>
       </c>
-      <c r="O33" s="62" t="s">
+      <c r="O33" s="144" t="s">
         <v>289</v>
       </c>
     </row>
@@ -14139,7 +15136,7 @@
       <c r="N42" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O42" s="180" t="s">
+      <c r="O42" s="182" t="s">
         <v>317</v>
       </c>
     </row>
@@ -14178,7 +15175,7 @@
       <c r="N43" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O43" s="181"/>
+      <c r="O43" s="183"/>
     </row>
     <row r="44" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
@@ -14215,7 +15212,7 @@
       <c r="N44" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O44" s="181"/>
+      <c r="O44" s="183"/>
     </row>
     <row r="45" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
@@ -14252,7 +15249,7 @@
       <c r="N45" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O45" s="181"/>
+      <c r="O45" s="183"/>
     </row>
     <row r="46" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
@@ -14289,7 +15286,7 @@
       <c r="N46" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O46" s="181"/>
+      <c r="O46" s="183"/>
     </row>
     <row r="47" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
@@ -14326,7 +15323,7 @@
       <c r="N47" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O47" s="181"/>
+      <c r="O47" s="183"/>
     </row>
     <row r="48" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
@@ -14363,7 +15360,7 @@
       <c r="N48" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O48" s="181"/>
+      <c r="O48" s="183"/>
     </row>
     <row r="49" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
@@ -14400,7 +15397,7 @@
       <c r="N49" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O49" s="181"/>
+      <c r="O49" s="183"/>
     </row>
     <row r="50" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
@@ -14437,7 +15434,7 @@
       <c r="N50" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O50" s="181"/>
+      <c r="O50" s="183"/>
     </row>
     <row r="51" spans="1:15" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="33">
@@ -14476,7 +15473,7 @@
       <c r="N51" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O51" s="181"/>
+      <c r="O51" s="183"/>
     </row>
     <row r="52" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
@@ -14513,7 +15510,7 @@
       <c r="N52" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O52" s="181"/>
+      <c r="O52" s="183"/>
     </row>
     <row r="53" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
@@ -14550,7 +15547,7 @@
       <c r="N53" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="O53" s="182"/>
+      <c r="O53" s="184"/>
     </row>
     <row r="54" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
@@ -14581,7 +15578,7 @@
       <c r="N54" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="O54" s="172" t="s">
+      <c r="O54" s="174" t="s">
         <v>255</v>
       </c>
     </row>
@@ -14614,7 +15611,7 @@
       <c r="N55" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="O55" s="174"/>
+      <c r="O55" s="176"/>
     </row>
     <row r="56" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
@@ -14643,7 +15640,7 @@
       <c r="N56" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="O56" s="173"/>
+      <c r="O56" s="175"/>
     </row>
     <row r="57" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
@@ -14674,7 +15671,7 @@
       <c r="N57" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="O57" s="172" t="s">
+      <c r="O57" s="174" t="s">
         <v>269</v>
       </c>
     </row>
@@ -14707,7 +15704,7 @@
       <c r="N58" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="O58" s="173"/>
+      <c r="O58" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14739,7 +15736,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -14749,7 +15746,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15815,7 +16812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="113"/>
@@ -15851,7 +16848,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="189"/>
+      <c r="A2" s="188"/>
       <c r="B2" s="114"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -15900,15 +16897,15 @@
       <c r="E4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="150" t="s">
+      <c r="F4" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150" t="s">
+      <c r="G4" s="153"/>
+      <c r="H4" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -15918,11 +16915,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="191"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -15932,11 +16929,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="191"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -15946,11 +16943,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -15960,11 +16957,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -15974,11 +16971,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="191"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -15988,11 +16985,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -16002,11 +16999,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="191"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -16016,11 +17013,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="191"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -16030,11 +17027,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="191"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -16044,11 +17041,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -16058,11 +17055,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="191"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -16072,11 +17069,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="191"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -16086,11 +17083,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="191"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -16100,11 +17097,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="191"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -16114,11 +17111,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="191"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -16128,11 +17125,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="191"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -16142,11 +17139,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="191"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -16156,11 +17153,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="191"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -16170,11 +17167,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="191"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -16184,11 +17181,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="185"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="191"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -16198,11 +17195,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="185"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="191"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -16212,11 +17209,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="185"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="191"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -16226,11 +17223,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="185"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="191"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -16240,11 +17237,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="185"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="191"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -16254,11 +17251,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="185"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="191"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -16268,11 +17265,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="185"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="191"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -16282,11 +17279,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="191"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -16296,11 +17293,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="191"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -16317,11 +17314,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="191"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -16338,11 +17335,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="185"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -16359,11 +17356,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="185"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="191"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -16380,11 +17377,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="185"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="191"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -16401,11 +17398,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="185"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="191"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -16422,11 +17419,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="185"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -16443,11 +17440,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="185"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="191"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -16464,11 +17461,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="185"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="191"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -16485,11 +17482,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="185"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="191"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -16506,11 +17503,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="185"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="191"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -16527,11 +17524,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="185"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="191"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -16548,11 +17545,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="184"/>
-      <c r="J44" s="185"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="189"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="191"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -16569,11 +17566,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="184"/>
-      <c r="J45" s="185"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="189"/>
+      <c r="I45" s="190"/>
+      <c r="J45" s="191"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -16590,11 +17587,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="184"/>
-      <c r="J46" s="185"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="189"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="191"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -16611,11 +17608,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="184"/>
-      <c r="J47" s="185"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="189"/>
+      <c r="I47" s="190"/>
+      <c r="J47" s="191"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -16632,11 +17629,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="184"/>
-      <c r="J48" s="185"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="190"/>
+      <c r="J48" s="191"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -16653,11 +17650,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="185"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="189"/>
+      <c r="I49" s="190"/>
+      <c r="J49" s="191"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -16674,11 +17671,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="184"/>
-      <c r="J50" s="185"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -16695,11 +17692,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="184"/>
-      <c r="J51" s="185"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="191"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -16716,11 +17713,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="184"/>
-      <c r="J52" s="185"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="190"/>
+      <c r="J52" s="191"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -16737,11 +17734,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="184"/>
-      <c r="J53" s="185"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="190"/>
+      <c r="J53" s="191"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -16758,11 +17755,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="184"/>
-      <c r="J54" s="185"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="189"/>
+      <c r="I54" s="190"/>
+      <c r="J54" s="191"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -16779,11 +17776,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="184"/>
-      <c r="J55" s="185"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="189"/>
+      <c r="I55" s="190"/>
+      <c r="J55" s="191"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -16800,11 +17797,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="184"/>
-      <c r="J56" s="185"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="189"/>
+      <c r="I56" s="190"/>
+      <c r="J56" s="191"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -16816,25 +17813,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -16849,80 +17901,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -16941,7 +17938,7 @@
   <dimension ref="A1:Q1048473"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16965,20 +17962,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="190" t="str">
+      <c r="F1" s="198" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="190"/>
+      <c r="G1" s="198"/>
       <c r="H1" s="103" t="s">
         <v>3</v>
       </c>
@@ -17006,18 +18003,18 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="190" t="str">
+      <c r="F2" s="198" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="190"/>
+      <c r="G2" s="198"/>
       <c r="H2" s="103" t="s">
         <v>49</v>
       </c>
@@ -17063,12 +18060,12 @@
       <c r="F4" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="158"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="39" t="s">
         <v>56</v>
       </c>
@@ -17104,12 +18101,12 @@
       <c r="F5" s="141" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="195" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="193"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
       <c r="K5" s="142" t="s">
         <v>301</v>
       </c>
@@ -17147,12 +18144,12 @@
       <c r="F6" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="192" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="74" t="s">
@@ -17186,12 +18183,12 @@
       <c r="F7" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="192" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
       <c r="K7" s="120" t="s">
         <v>279</v>
       </c>
@@ -17229,12 +18226,12 @@
       <c r="F8" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="147" t="s">
+      <c r="G8" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
       <c r="K8" s="120" t="s">
         <v>279</v>
       </c>
@@ -17272,12 +18269,12 @@
       <c r="F9" s="136" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="192" t="s">
         <v>352</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
       <c r="K9" s="120"/>
       <c r="L9" s="120"/>
       <c r="M9" s="74" t="s">
@@ -17311,12 +18308,12 @@
       <c r="F10" s="136" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="192" t="s">
         <v>353</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
       <c r="K10" s="134" t="s">
         <v>306</v>
       </c>
@@ -17354,12 +18351,12 @@
       <c r="F11" s="136" t="s">
         <v>293</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="150" t="s">
         <v>333</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="152"/>
       <c r="K11" s="120" t="s">
         <v>273</v>
       </c>
@@ -17395,12 +18392,12 @@
       <c r="F12" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="150" t="s">
         <v>334</v>
       </c>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
       <c r="K12" s="120" t="s">
         <v>279</v>
       </c>
@@ -17434,12 +18431,12 @@
       <c r="F13" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="150" t="s">
         <v>335</v>
       </c>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
       <c r="K13" s="120" t="s">
         <v>279</v>
       </c>
@@ -17473,12 +18470,12 @@
       <c r="F14" s="136" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="147" t="s">
+      <c r="G14" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
       <c r="K14" s="120" t="s">
         <v>287</v>
       </c>
@@ -17512,12 +18509,12 @@
       <c r="F15" s="136" t="s">
         <v>311</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="150" t="s">
         <v>337</v>
       </c>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
       <c r="K15" s="120" t="s">
         <v>313</v>
       </c>
@@ -17543,10 +18540,10 @@
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
       <c r="K16" s="87"/>
       <c r="L16" s="87"/>
       <c r="M16" s="74"/>
@@ -17564,10 +18561,10 @@
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
       <c r="K17" s="87"/>
       <c r="L17" s="87"/>
       <c r="M17" s="74"/>
@@ -17585,10 +18582,10 @@
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
       <c r="M18" s="74"/>
@@ -17606,10 +18603,10 @@
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
       <c r="K19" s="83"/>
       <c r="L19" s="83"/>
       <c r="M19" s="74"/>
@@ -17627,10 +18624,10 @@
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
       <c r="M20" s="74"/>
@@ -17648,10 +18645,10 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
       <c r="M21" s="74"/>
@@ -17669,10 +18666,10 @@
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
       <c r="K22" s="70"/>
       <c r="L22" s="59"/>
       <c r="M22" s="74"/>
@@ -17690,10 +18687,10 @@
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
       <c r="M23" s="74"/>
@@ -17711,10 +18708,10 @@
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
       <c r="M24" s="74"/>
@@ -17732,10 +18729,10 @@
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
       <c r="M25" s="74"/>
@@ -17753,10 +18750,10 @@
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="149"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
       <c r="M26" s="74"/>
@@ -17774,10 +18771,10 @@
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="149"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
       <c r="M27" s="74"/>
@@ -17795,10 +18792,10 @@
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
       <c r="M28" s="74"/>
@@ -17816,10 +18813,10 @@
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
       <c r="M29" s="74"/>
@@ -17837,10 +18834,10 @@
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
       <c r="M30" s="74"/>
@@ -17858,10 +18855,10 @@
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
       <c r="M31" s="74"/>
@@ -17879,10 +18876,10 @@
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
       <c r="M32" s="74"/>
@@ -17900,10 +18897,10 @@
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
       <c r="M33" s="74"/>
@@ -17921,10 +18918,10 @@
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
       <c r="M34" s="74"/>
@@ -17942,10 +18939,10 @@
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="149"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="74"/>
@@ -17963,10 +18960,10 @@
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="149"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
       <c r="M36" s="74"/>
@@ -17984,10 +18981,10 @@
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
       <c r="M37" s="74"/>
@@ -18005,10 +19002,10 @@
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="149"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="152"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
       <c r="M38" s="74"/>
@@ -18026,10 +19023,10 @@
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="149"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="74"/>
@@ -18047,10 +19044,10 @@
       <c r="D40" s="62"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="149"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
       <c r="K40" s="83"/>
       <c r="L40" s="83"/>
       <c r="M40" s="74"/>
@@ -18068,10 +19065,10 @@
       <c r="D41" s="62"/>
       <c r="E41" s="62"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="149"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
       <c r="M41" s="74"/>
@@ -18089,10 +19086,10 @@
       <c r="D42" s="62"/>
       <c r="E42" s="62"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="149"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="152"/>
       <c r="K42" s="59"/>
       <c r="L42" s="59"/>
       <c r="M42" s="74"/>
@@ -18110,10 +19107,10 @@
       <c r="D43" s="62"/>
       <c r="E43" s="62"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="149"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="152"/>
       <c r="K43" s="59"/>
       <c r="L43" s="59"/>
       <c r="M43" s="74"/>
@@ -18131,10 +19128,10 @@
       <c r="D44" s="62"/>
       <c r="E44" s="62"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="149"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="152"/>
       <c r="K44" s="59"/>
       <c r="L44" s="59"/>
       <c r="M44" s="74"/>
@@ -18152,10 +19149,10 @@
       <c r="D45" s="62"/>
       <c r="E45" s="62"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="152"/>
       <c r="K45" s="59"/>
       <c r="L45" s="59"/>
       <c r="M45" s="74"/>
@@ -18173,10 +19170,10 @@
       <c r="D46" s="62"/>
       <c r="E46" s="62"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="149"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="152"/>
       <c r="K46" s="72"/>
       <c r="L46" s="72"/>
       <c r="M46" s="74"/>
@@ -18194,10 +19191,10 @@
       <c r="D47" s="62"/>
       <c r="E47" s="62"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="149"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="152"/>
       <c r="K47" s="72"/>
       <c r="L47" s="72"/>
       <c r="M47" s="74"/>
@@ -18215,10 +19212,10 @@
       <c r="D48" s="62"/>
       <c r="E48" s="62"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="149"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
       <c r="K48" s="72"/>
       <c r="L48" s="72"/>
       <c r="M48" s="74"/>
@@ -18236,10 +19233,10 @@
       <c r="D49" s="62"/>
       <c r="E49" s="62"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="148"/>
-      <c r="J49" s="149"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="152"/>
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
       <c r="M49" s="74"/>
@@ -18257,10 +19254,10 @@
       <c r="D50" s="62"/>
       <c r="E50" s="62"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="149"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="152"/>
       <c r="K50" s="72"/>
       <c r="L50" s="72"/>
       <c r="M50" s="74"/>
@@ -18278,10 +19275,10 @@
       <c r="D51" s="62"/>
       <c r="E51" s="62"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="149"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
       <c r="M51" s="74"/>
@@ -18299,10 +19296,10 @@
       <c r="D52" s="62"/>
       <c r="E52" s="62"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="149"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="152"/>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
       <c r="M52" s="74"/>
@@ -18320,10 +19317,10 @@
       <c r="D53" s="62"/>
       <c r="E53" s="62"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
       <c r="M53" s="74"/>
@@ -18341,10 +19338,10 @@
       <c r="D54" s="62"/>
       <c r="E54" s="62"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="149"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
       <c r="M54" s="74"/>
@@ -18362,10 +19359,10 @@
       <c r="D55" s="62"/>
       <c r="E55" s="62"/>
       <c r="F55" s="40"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="149"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="152"/>
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
       <c r="M55" s="74"/>
@@ -18383,10 +19380,10 @@
       <c r="D56" s="62"/>
       <c r="E56" s="62"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="149"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="152"/>
       <c r="K56" s="72"/>
       <c r="L56" s="72"/>
       <c r="M56" s="74"/>
@@ -18404,10 +19401,10 @@
       <c r="D57" s="62"/>
       <c r="E57" s="62"/>
       <c r="F57" s="40"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="148"/>
-      <c r="J57" s="149"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="152"/>
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
       <c r="M57" s="74"/>
@@ -18425,10 +19422,10 @@
       <c r="D58" s="62"/>
       <c r="E58" s="62"/>
       <c r="F58" s="40"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="149"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="152"/>
       <c r="K58" s="72"/>
       <c r="L58" s="72"/>
       <c r="M58" s="74"/>
@@ -18446,10 +19443,10 @@
       <c r="D59" s="62"/>
       <c r="E59" s="62"/>
       <c r="F59" s="40"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="149"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="152"/>
       <c r="K59" s="72"/>
       <c r="L59" s="72"/>
       <c r="M59" s="74"/>
@@ -18467,10 +19464,10 @@
       <c r="D60" s="62"/>
       <c r="E60" s="62"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="149"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="152"/>
       <c r="K60" s="72"/>
       <c r="L60" s="72"/>
       <c r="M60" s="74"/>
@@ -18488,10 +19485,10 @@
       <c r="D61" s="62"/>
       <c r="E61" s="62"/>
       <c r="F61" s="40"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="149"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="152"/>
       <c r="K61" s="72"/>
       <c r="L61" s="72"/>
       <c r="M61" s="74"/>
@@ -18509,10 +19506,10 @@
       <c r="D62" s="62"/>
       <c r="E62" s="62"/>
       <c r="F62" s="40"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="149"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="152"/>
       <c r="K62" s="72"/>
       <c r="L62" s="72"/>
       <c r="M62" s="74"/>
@@ -18530,10 +19527,10 @@
       <c r="D63" s="62"/>
       <c r="E63" s="62"/>
       <c r="F63" s="40"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="149"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="152"/>
       <c r="K63" s="72"/>
       <c r="L63" s="72"/>
       <c r="M63" s="74"/>
@@ -18551,10 +19548,10 @@
       <c r="D64" s="62"/>
       <c r="E64" s="62"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="149"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="152"/>
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
       <c r="M64" s="74"/>
@@ -18572,10 +19569,10 @@
       <c r="D65" s="62"/>
       <c r="E65" s="62"/>
       <c r="F65" s="40"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="149"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="152"/>
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
       <c r="M65" s="74"/>
@@ -18593,10 +19590,10 @@
       <c r="D66" s="62"/>
       <c r="E66" s="62"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="149"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="152"/>
       <c r="K66" s="72"/>
       <c r="L66" s="72"/>
       <c r="M66" s="74"/>
@@ -18614,10 +19611,10 @@
       <c r="D67" s="62"/>
       <c r="E67" s="62"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="149"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="152"/>
       <c r="K67" s="72"/>
       <c r="L67" s="72"/>
       <c r="M67" s="74"/>
@@ -18635,10 +19632,10 @@
       <c r="D68" s="62"/>
       <c r="E68" s="62"/>
       <c r="F68" s="40"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="149"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="152"/>
       <c r="K68" s="82"/>
       <c r="L68" s="82"/>
       <c r="M68" s="74"/>
@@ -18656,10 +19653,10 @@
       <c r="D69" s="62"/>
       <c r="E69" s="62"/>
       <c r="F69" s="40"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="149"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="152"/>
       <c r="K69" s="82"/>
       <c r="L69" s="82"/>
       <c r="M69" s="74"/>
@@ -18677,10 +19674,10 @@
       <c r="D70" s="62"/>
       <c r="E70" s="62"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="147"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="149"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="152"/>
       <c r="K70" s="82"/>
       <c r="L70" s="82"/>
       <c r="M70" s="74"/>
@@ -18696,10 +19693,10 @@
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="149"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="152"/>
       <c r="K71" s="82"/>
       <c r="L71" s="82"/>
       <c r="M71" s="74"/>
@@ -18715,10 +19712,10 @@
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="149"/>
+      <c r="G72" s="150"/>
+      <c r="H72" s="151"/>
+      <c r="I72" s="151"/>
+      <c r="J72" s="152"/>
       <c r="K72" s="82"/>
       <c r="L72" s="82"/>
       <c r="M72" s="74"/>
@@ -18734,10 +19731,10 @@
       <c r="D73" s="62"/>
       <c r="E73" s="62"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="148"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="152"/>
       <c r="K73" s="82"/>
       <c r="L73" s="82"/>
       <c r="M73" s="74"/>
@@ -18753,10 +19750,10 @@
       <c r="D74" s="62"/>
       <c r="E74" s="62"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="147"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="152"/>
       <c r="K74" s="82"/>
       <c r="L74" s="82"/>
       <c r="M74" s="74"/>
@@ -18772,10 +19769,10 @@
       <c r="D75" s="62"/>
       <c r="E75" s="62"/>
       <c r="F75" s="40"/>
-      <c r="G75" s="147"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="149"/>
+      <c r="G75" s="150"/>
+      <c r="H75" s="151"/>
+      <c r="I75" s="151"/>
+      <c r="J75" s="152"/>
       <c r="K75" s="82"/>
       <c r="L75" s="82"/>
       <c r="M75" s="74"/>
@@ -18791,10 +19788,10 @@
       <c r="D76" s="62"/>
       <c r="E76" s="62"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="147"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="149"/>
+      <c r="G76" s="150"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="151"/>
+      <c r="J76" s="152"/>
       <c r="K76" s="82"/>
       <c r="L76" s="82"/>
       <c r="M76" s="74"/>
@@ -18810,10 +19807,10 @@
       <c r="D77" s="62"/>
       <c r="E77" s="62"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="149"/>
+      <c r="G77" s="150"/>
+      <c r="H77" s="151"/>
+      <c r="I77" s="151"/>
+      <c r="J77" s="152"/>
       <c r="K77" s="82"/>
       <c r="L77" s="82"/>
       <c r="M77" s="74"/>
@@ -18829,10 +19826,10 @@
       <c r="D78" s="62"/>
       <c r="E78" s="62"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="149"/>
+      <c r="G78" s="150"/>
+      <c r="H78" s="151"/>
+      <c r="I78" s="151"/>
+      <c r="J78" s="152"/>
       <c r="K78" s="82"/>
       <c r="L78" s="82"/>
       <c r="M78" s="74"/>
@@ -18848,10 +19845,10 @@
       <c r="D79" s="62"/>
       <c r="E79" s="62"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="148"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="149"/>
+      <c r="G79" s="150"/>
+      <c r="H79" s="151"/>
+      <c r="I79" s="151"/>
+      <c r="J79" s="152"/>
       <c r="K79" s="82"/>
       <c r="L79" s="82"/>
       <c r="M79" s="74"/>
@@ -18867,10 +19864,10 @@
       <c r="D80" s="62"/>
       <c r="E80" s="62"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="147"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="149"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="151"/>
+      <c r="I80" s="151"/>
+      <c r="J80" s="152"/>
       <c r="K80" s="82"/>
       <c r="L80" s="82"/>
       <c r="M80" s="74"/>
@@ -18886,10 +19883,10 @@
       <c r="D81" s="62"/>
       <c r="E81" s="62"/>
       <c r="F81" s="40"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="148"/>
-      <c r="I81" s="148"/>
-      <c r="J81" s="149"/>
+      <c r="G81" s="150"/>
+      <c r="H81" s="151"/>
+      <c r="I81" s="151"/>
+      <c r="J81" s="152"/>
       <c r="K81" s="82"/>
       <c r="L81" s="82"/>
       <c r="M81" s="74"/>
@@ -18905,10 +19902,10 @@
       <c r="D82" s="62"/>
       <c r="E82" s="62"/>
       <c r="F82" s="40"/>
-      <c r="G82" s="147"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="149"/>
+      <c r="G82" s="150"/>
+      <c r="H82" s="151"/>
+      <c r="I82" s="151"/>
+      <c r="J82" s="152"/>
       <c r="K82" s="82"/>
       <c r="L82" s="82"/>
       <c r="M82" s="74"/>
@@ -18924,10 +19921,10 @@
       <c r="D83" s="62"/>
       <c r="E83" s="62"/>
       <c r="F83" s="40"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="148"/>
-      <c r="I83" s="148"/>
-      <c r="J83" s="149"/>
+      <c r="G83" s="150"/>
+      <c r="H83" s="151"/>
+      <c r="I83" s="151"/>
+      <c r="J83" s="152"/>
       <c r="K83" s="82"/>
       <c r="L83" s="82"/>
       <c r="M83" s="74"/>
@@ -18943,10 +19940,10 @@
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="149"/>
+      <c r="G84" s="150"/>
+      <c r="H84" s="151"/>
+      <c r="I84" s="151"/>
+      <c r="J84" s="152"/>
       <c r="K84" s="82"/>
       <c r="L84" s="82"/>
       <c r="M84" s="74"/>
@@ -18962,10 +19959,10 @@
       <c r="D85" s="62"/>
       <c r="E85" s="62"/>
       <c r="F85" s="40"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="148"/>
-      <c r="I85" s="148"/>
-      <c r="J85" s="149"/>
+      <c r="G85" s="150"/>
+      <c r="H85" s="151"/>
+      <c r="I85" s="151"/>
+      <c r="J85" s="152"/>
       <c r="K85" s="82"/>
       <c r="L85" s="82"/>
       <c r="M85" s="74"/>
@@ -18981,10 +19978,10 @@
       <c r="D86" s="62"/>
       <c r="E86" s="62"/>
       <c r="F86" s="40"/>
-      <c r="G86" s="147"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="149"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="151"/>
+      <c r="J86" s="152"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
       <c r="M86" s="74"/>
@@ -19000,10 +19997,10 @@
       <c r="D87" s="62"/>
       <c r="E87" s="62"/>
       <c r="F87" s="40"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="148"/>
-      <c r="I87" s="148"/>
-      <c r="J87" s="149"/>
+      <c r="G87" s="150"/>
+      <c r="H87" s="151"/>
+      <c r="I87" s="151"/>
+      <c r="J87" s="152"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
       <c r="M87" s="74"/>
@@ -19019,10 +20016,10 @@
       <c r="D88" s="62"/>
       <c r="E88" s="62"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="147"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="149"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="151"/>
+      <c r="I88" s="151"/>
+      <c r="J88" s="152"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
       <c r="M88" s="74"/>
@@ -19038,10 +20035,10 @@
       <c r="D89" s="62"/>
       <c r="E89" s="62"/>
       <c r="F89" s="40"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="148"/>
-      <c r="I89" s="148"/>
-      <c r="J89" s="149"/>
+      <c r="G89" s="150"/>
+      <c r="H89" s="151"/>
+      <c r="I89" s="151"/>
+      <c r="J89" s="152"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
       <c r="M89" s="74"/>
@@ -19057,10 +20054,10 @@
       <c r="D90" s="62"/>
       <c r="E90" s="62"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="147"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="149"/>
+      <c r="G90" s="150"/>
+      <c r="H90" s="151"/>
+      <c r="I90" s="151"/>
+      <c r="J90" s="152"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
       <c r="M90" s="74"/>
@@ -19076,10 +20073,10 @@
       <c r="D91" s="62"/>
       <c r="E91" s="62"/>
       <c r="F91" s="40"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="148"/>
-      <c r="I91" s="148"/>
-      <c r="J91" s="149"/>
+      <c r="G91" s="150"/>
+      <c r="H91" s="151"/>
+      <c r="I91" s="151"/>
+      <c r="J91" s="152"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
       <c r="M91" s="74"/>
@@ -19095,10 +20092,10 @@
       <c r="D92" s="62"/>
       <c r="E92" s="62"/>
       <c r="F92" s="40"/>
-      <c r="G92" s="147"/>
-      <c r="H92" s="148"/>
-      <c r="I92" s="148"/>
-      <c r="J92" s="149"/>
+      <c r="G92" s="150"/>
+      <c r="H92" s="151"/>
+      <c r="I92" s="151"/>
+      <c r="J92" s="152"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
       <c r="M92" s="74"/>
@@ -19114,10 +20111,10 @@
       <c r="D93" s="62"/>
       <c r="E93" s="62"/>
       <c r="F93" s="40"/>
-      <c r="G93" s="147"/>
-      <c r="H93" s="148"/>
-      <c r="I93" s="148"/>
-      <c r="J93" s="149"/>
+      <c r="G93" s="150"/>
+      <c r="H93" s="151"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="152"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
       <c r="M93" s="74"/>
@@ -19133,10 +20130,10 @@
       <c r="D94" s="62"/>
       <c r="E94" s="62"/>
       <c r="F94" s="40"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="148"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="149"/>
+      <c r="G94" s="150"/>
+      <c r="H94" s="151"/>
+      <c r="I94" s="151"/>
+      <c r="J94" s="152"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
       <c r="M94" s="74"/>
@@ -19152,10 +20149,10 @@
       <c r="D95" s="62"/>
       <c r="E95" s="62"/>
       <c r="F95" s="40"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="148"/>
-      <c r="I95" s="148"/>
-      <c r="J95" s="149"/>
+      <c r="G95" s="150"/>
+      <c r="H95" s="151"/>
+      <c r="I95" s="151"/>
+      <c r="J95" s="152"/>
       <c r="K95" s="82"/>
       <c r="L95" s="82"/>
       <c r="M95" s="74"/>
@@ -19171,10 +20168,10 @@
       <c r="D96" s="62"/>
       <c r="E96" s="62"/>
       <c r="F96" s="40"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="148"/>
-      <c r="J96" s="149"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="151"/>
+      <c r="J96" s="152"/>
       <c r="K96" s="82"/>
       <c r="L96" s="82"/>
       <c r="M96" s="74"/>
@@ -19190,10 +20187,10 @@
       <c r="D97" s="62"/>
       <c r="E97" s="62"/>
       <c r="F97" s="40"/>
-      <c r="G97" s="147"/>
-      <c r="H97" s="148"/>
-      <c r="I97" s="148"/>
-      <c r="J97" s="149"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="151"/>
+      <c r="I97" s="151"/>
+      <c r="J97" s="152"/>
       <c r="K97" s="82"/>
       <c r="L97" s="82"/>
       <c r="M97" s="74"/>
@@ -19209,10 +20206,10 @@
       <c r="D98" s="62"/>
       <c r="E98" s="62"/>
       <c r="F98" s="40"/>
-      <c r="G98" s="147"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="148"/>
-      <c r="J98" s="149"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="151"/>
+      <c r="I98" s="151"/>
+      <c r="J98" s="152"/>
       <c r="K98" s="82"/>
       <c r="L98" s="82"/>
       <c r="M98" s="74"/>
@@ -19228,10 +20225,10 @@
       <c r="D99" s="62"/>
       <c r="E99" s="62"/>
       <c r="F99" s="40"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="148"/>
-      <c r="I99" s="148"/>
-      <c r="J99" s="149"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="151"/>
+      <c r="I99" s="151"/>
+      <c r="J99" s="152"/>
       <c r="K99" s="82"/>
       <c r="L99" s="82"/>
       <c r="M99" s="74"/>
@@ -19247,10 +20244,10 @@
       <c r="D100" s="62"/>
       <c r="E100" s="62"/>
       <c r="F100" s="40"/>
-      <c r="G100" s="147"/>
-      <c r="H100" s="148"/>
-      <c r="I100" s="148"/>
-      <c r="J100" s="149"/>
+      <c r="G100" s="150"/>
+      <c r="H100" s="151"/>
+      <c r="I100" s="151"/>
+      <c r="J100" s="152"/>
       <c r="K100" s="82"/>
       <c r="L100" s="82"/>
       <c r="M100" s="74"/>
@@ -19263,38 +20260,58 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="100">
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G57:J57"/>
     <mergeCell ref="G99:J99"/>
     <mergeCell ref="G100:J100"/>
     <mergeCell ref="G5:J5"/>
@@ -19311,58 +20328,38 @@
     <mergeCell ref="G75:J75"/>
     <mergeCell ref="G76:J76"/>
     <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048473:M1048576 M5:M100"/>
@@ -19394,8 +20391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -19411,10 +20408,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -19445,8 +20442,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -20247,65 +21244,65 @@
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
     </row>
-    <row r="51" spans="1:14" ht="12" customHeight="1">
-      <c r="B51" s="43"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-    </row>
-    <row r="52" spans="1:14" ht="12" customHeight="1">
-      <c r="B52" s="43"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-    </row>
-    <row r="53" spans="1:14" ht="12" customHeight="1">
-      <c r="B53" s="78"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-    </row>
-    <row r="54" spans="1:14" ht="12" customHeight="1">
-      <c r="B54" s="78"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
+    <row r="51" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
+      <c r="B51" s="206"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="206"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="206"/>
+      <c r="K51" s="206"/>
+      <c r="L51" s="206"/>
+      <c r="M51" s="206"/>
+      <c r="N51" s="206"/>
+    </row>
+    <row r="52" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
+      <c r="B52" s="206"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="206"/>
+    </row>
+    <row r="53" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
+      <c r="B53" s="208"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="206"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
+      <c r="I53" s="206"/>
+      <c r="J53" s="206"/>
+      <c r="K53" s="206"/>
+      <c r="L53" s="206"/>
+      <c r="M53" s="206"/>
+      <c r="N53" s="206"/>
+    </row>
+    <row r="54" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
+      <c r="B54" s="208"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="206"/>
+      <c r="H54" s="206"/>
+      <c r="I54" s="206"/>
+      <c r="J54" s="206"/>
+      <c r="K54" s="206"/>
+      <c r="L54" s="206"/>
+      <c r="M54" s="206"/>
+      <c r="N54" s="206"/>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1">
       <c r="A55" s="42"/>
@@ -21050,33 +22047,33 @@
       <c r="N101" s="43"/>
     </row>
     <row r="102" spans="1:14" ht="12" customHeight="1">
-      <c r="B102" s="194" t="s">
+      <c r="B102" s="199" t="s">
         <v>338</v>
       </c>
-      <c r="C102" s="195"/>
-      <c r="D102" s="195"/>
-      <c r="E102" s="195"/>
-      <c r="F102" s="195"/>
-      <c r="G102" s="195"/>
-      <c r="H102" s="195"/>
-      <c r="I102" s="195"/>
-      <c r="J102" s="195"/>
-      <c r="K102" s="195"/>
+      <c r="C102" s="200"/>
+      <c r="D102" s="200"/>
+      <c r="E102" s="200"/>
+      <c r="F102" s="200"/>
+      <c r="G102" s="200"/>
+      <c r="H102" s="200"/>
+      <c r="I102" s="200"/>
+      <c r="J102" s="200"/>
+      <c r="K102" s="200"/>
       <c r="L102" s="43"/>
       <c r="M102" s="43"/>
       <c r="N102" s="43"/>
     </row>
     <row r="103" spans="1:14" ht="12" customHeight="1">
-      <c r="B103" s="195"/>
-      <c r="C103" s="195"/>
-      <c r="D103" s="195"/>
-      <c r="E103" s="195"/>
-      <c r="F103" s="195"/>
-      <c r="G103" s="195"/>
-      <c r="H103" s="195"/>
-      <c r="I103" s="195"/>
-      <c r="J103" s="195"/>
-      <c r="K103" s="195"/>
+      <c r="B103" s="200"/>
+      <c r="C103" s="200"/>
+      <c r="D103" s="200"/>
+      <c r="E103" s="200"/>
+      <c r="F103" s="200"/>
+      <c r="G103" s="200"/>
+      <c r="H103" s="200"/>
+      <c r="I103" s="200"/>
+      <c r="J103" s="200"/>
+      <c r="K103" s="200"/>
       <c r="L103" s="43"/>
       <c r="M103" s="43"/>
       <c r="N103" s="43"/>
@@ -21278,10 +22275,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -21312,8 +22309,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -21727,14 +22724,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -21927,11 +22924,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="197" t="s">
+      <c r="E27" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="204"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">

--- a/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1121_Cap nhat don vi.xlsx
+++ b/2018/Thao Phuong/01 QL DonVi-ChiNhanh/CIF1121_Cap nhat don vi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\SVN-GitHub\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" tabRatio="836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" tabRatio="836" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1074,7 +1074,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Combo load 2 cột ID và Name</t>
+Combo load 2 cột ID và Name
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1099,7 +1100,8 @@
           </rPr>
           <t xml:space="preserve">
 Thiếu xử lý dùng chung
-Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+Nếu check vào dùng chung thì DivisionID = '@@@'
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1124,7 +1126,8 @@
           </rPr>
           <t xml:space="preserve">
 Thiếu xử lý dùng chung
-Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+Nếu check vào dùng chung thì DivisionID = '@@@'
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1149,7 +1152,8 @@
           </rPr>
           <t xml:space="preserve">
 Thiếu xử lý dùng chung
-Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+Nếu check vào dùng chung thì DivisionID = '@@@'
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1174,7 +1178,8 @@
           </rPr>
           <t xml:space="preserve">
 Thiếu xử lý dùng chung
-Nếu check vào dùng chung thì DivisionID = '@@@'</t>
+Nếu check vào dùng chung thì DivisionID = '@@@'
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1422,7 +1427,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Form KPIF1041 ở đâu ra?</t>
+Form KPIF1041 ở đâu ra?
+--&gt; Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1599,7 +1605,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="359">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2655,17 +2661,7 @@
 (Tool BA\SQL List\A00-CLOUD)</t>
   </si>
   <si>
-    <t>@TaxDepartmentID</t>
-  </si>
-  <si>
     <t>Load combo [Tiền hoạch toán]</t>
-  </si>
-  <si>
-    <t>SELECT BankAccountID, BankName
-FROM AT1016 WITH (NOLOCK)
-WHERE DivisionID = @DivisionID
-AND Disabled = 0
-ORDER BY BankAccountID</t>
   </si>
   <si>
     <t>Cập nhật đơn vị - chi nhánh</t>
@@ -2831,11 +2827,6 @@
   </si>
   <si>
     <t>Thực thi @SQL006: truyền tham số @TaxDepartmentID từ @SQL005 để load dữ liệu cho combo [Cơ quan thuế cấp cục]</t>
-  </si>
-  <si>
-    <t>SELECT ContactPerson
-FROM AT1101 WITH (NOLOCK)
-Order by ContactPerson</t>
   </si>
   <si>
     <t>SELECT APK, DivisionID, DivisionName, DivisionNameE, Tel, Email, Fax, VATNO, Address, AddressE, District, City, ContactPerson, Logo, Disabled, BeginMonth, BeginYear, StartDate, EndDate, BaseCurrencyID, PeriodNum, BankAccountID, QuantityDecimals, UnitCostDecimals, ConvertedDecimals, PercentDecimal, Industry, FiscalBeginDate, TaxreturnPerson, TaxDepartmentID, TaxDepartID, ManagingUnit, ManagingUnitTaxNo, IsUseTaxAgent, TaxAgentNo, TaxAgentName, TaxAgentAddress, TaxAgentFax, TaxAgentDistrict, TaxAgentCity, TaxAgentTel, TaxAgentEmail, TaxAgentContractNo, TaxAgentContractDate, TaxAgentPerson, TaxAgentCertificate, CreateUserID, CreateDate, LastModifyUserID, LastModifyDate
@@ -3038,27 +3029,6 @@
     <t>24/1/2018</t>
   </si>
   <si>
-    <t>SELECT CurrencyID, CurrencyName
-FROM AT1004 WITH (NOLOCK)
-WHERE DivisionID = @DivisionID
-AND   Disabled=0
-Order by CurrencyID</t>
-  </si>
-  <si>
-    <t>SELECT TaxDepartmentID,
-ShortTaxDepartment + ' - ' + TaxDepartmentname AS TaxDepartmentname
-FROM AT0291 WITH (NOLOCK)
-WHERE [Disabled] = 0
-Order by TaxDepartmentID</t>
-  </si>
-  <si>
-    <t>SELECT TaxDepartID, TaxDepartName
-FROM AT0292 WITH (NOLOCK)
-WHERE [Disabled] = 0
-AND TaxDepartmentID = @TaxDepartmentID
-Order by TaxDepartID</t>
-  </si>
-  <si>
     <t>Not In List</t>
   </si>
   <si>
@@ -3089,11 +3059,47 @@
   <si>
     <t>00ML000001</t>
   </si>
+  <si>
+    <t xml:space="preserve">Select EmployeeID, FullName from AT1103 WITH (NOLOCK) order by  EmployeeID </t>
+  </si>
+  <si>
+    <t>SELECT CurrencyID, CurrencyName
+FROM AT1004 WITH (NOLOCK)
+WHERE DivisionID IN (@DivisionID,'@@@')
+AND   Disabled=0
+Order by CurrencyID</t>
+  </si>
+  <si>
+    <t>SELECT BankAccountID, BankName
+FROM AT1016 WITH (NOLOCK)
+WHERE DivisionID  IN (@DivisionID,'@@@')
+AND Disabled = 0
+ORDER BY BankAccountID</t>
+  </si>
+  <si>
+    <t>SELECT TaxDepartmentID,
+ShortTaxDepartment + ' - ' + TaxDepartmentname AS TaxDepartmentname
+FROM AT0291 WITH (NOLOCK)
+WHERE [Disabled] = 0 and DivisionID IN (@DivisionID,'@@@')
+Order by TaxDepartmentID</t>
+  </si>
+  <si>
+    <t>SELECT TaxDepartID, TaxDepartName
+FROM AT0292 WITH (NOLOCK)
+WHERE [Disabled] = 0 
+AND DivisionID  IN (@DivisionID,'@@@')
+AND TaxDepartmentID = @TaxDepartmentID
+Order by TaxDepartID</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@TaxDepartmentID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -3514,7 +3520,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3851,9 +3857,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3885,7 +3888,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3913,6 +3916,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,6 +4009,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4014,23 +4029,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4040,9 +4040,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4062,10 +4059,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2" xfId="2"/>
@@ -4114,7 +4107,7 @@
                   <a14:compatExt spid="_x0000_s5142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4169,7 +4162,7 @@
                   <a14:compatExt spid="_x0000_s5143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4224,7 +4217,7 @@
                   <a14:compatExt spid="_x0000_s5144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4279,7 +4272,7 @@
                   <a14:compatExt spid="_x0000_s5146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4334,7 +4327,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4353,7 +4346,7 @@
           <xdr:cNvPr id="3" name="TextBox 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4409,7 +4402,7 @@
           <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4450,7 +4443,7 @@
           <xdr:cNvPr id="5" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4535,7 +4528,7 @@
           <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4576,7 +4569,7 @@
           <xdr:cNvPr id="7" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4632,7 +4625,7 @@
           <xdr:cNvPr id="8" name="Flowchart: Decision 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4681,7 +4674,7 @@
           <xdr:cNvPr id="9" name="Flowchart: Direct Access Storage 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4780,7 +4773,7 @@
           <xdr:cNvPr id="10" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4917,7 +4910,7 @@
           <xdr:cNvPr id="11" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5006,7 +4999,7 @@
           <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5047,7 +5040,7 @@
           <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5088,7 +5081,7 @@
           <xdr:cNvPr id="15" name="Flowchart: Decision 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5137,7 +5130,7 @@
           <xdr:cNvPr id="16" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5265,7 +5258,7 @@
           <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5306,7 +5299,7 @@
           <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5347,7 +5340,7 @@
           <xdr:cNvPr id="19" name="TextBox 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5403,7 +5396,7 @@
           <xdr:cNvPr id="20" name="TextBox 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5475,7 +5468,7 @@
         <xdr:cNvPr id="21" name="Group 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5487,7 @@
           <xdr:cNvPr id="22" name="TextBox 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5550,7 +5543,7 @@
           <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5591,7 +5584,7 @@
           <xdr:cNvPr id="24" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5687,7 +5680,7 @@
           <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5728,7 +5721,7 @@
           <xdr:cNvPr id="26" name="TextBox 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5784,7 +5777,7 @@
           <xdr:cNvPr id="27" name="Flowchart: Decision 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5833,7 +5826,7 @@
           <xdr:cNvPr id="28" name="Flowchart: Direct Access Storage 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5932,7 +5925,7 @@
           <xdr:cNvPr id="29" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6060,7 +6053,7 @@
           <xdr:cNvPr id="30" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6122,7 +6115,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>KPIF1041</a:t>
+              <a:t>CIF1121</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6152,7 +6145,7 @@
           <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6193,7 +6186,7 @@
           <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6234,7 +6227,7 @@
           <xdr:cNvPr id="34" name="Flowchart: Decision 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6283,7 +6276,7 @@
           <xdr:cNvPr id="35" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6411,7 +6404,7 @@
           <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6452,7 +6445,7 @@
           <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6493,7 +6486,7 @@
           <xdr:cNvPr id="38" name="TextBox 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6549,7 +6542,7 @@
           <xdr:cNvPr id="39" name="TextBox 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6621,7 +6614,7 @@
         <xdr:cNvPr id="40" name="Group 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6640,7 +6633,7 @@
           <xdr:cNvPr id="41" name="TextBox 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6696,7 +6689,7 @@
           <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6737,7 +6730,7 @@
           <xdr:cNvPr id="43" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6833,7 +6826,7 @@
           <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6874,7 +6867,7 @@
           <xdr:cNvPr id="45" name="TextBox 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6930,7 +6923,7 @@
           <xdr:cNvPr id="46" name="Flowchart: Decision 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6979,7 +6972,7 @@
           <xdr:cNvPr id="47" name="Flowchart: Direct Access Storage 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7078,7 +7071,7 @@
           <xdr:cNvPr id="48" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7206,7 +7199,7 @@
           <xdr:cNvPr id="49" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7298,7 +7291,7 @@
           <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7339,7 +7332,7 @@
           <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7380,7 +7373,7 @@
           <xdr:cNvPr id="53" name="Flowchart: Decision 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7429,7 +7422,7 @@
           <xdr:cNvPr id="54" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7557,7 +7550,7 @@
           <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7598,7 +7591,7 @@
           <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7639,7 +7632,7 @@
           <xdr:cNvPr id="57" name="TextBox 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7695,7 +7688,7 @@
           <xdr:cNvPr id="58" name="TextBox 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7751,7 +7744,7 @@
           <xdr:cNvPr id="59" name="Flowchart: Decision 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7800,7 +7793,7 @@
           <xdr:cNvPr id="60" name="Flowchart: Decision 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7905,7 +7898,7 @@
           <xdr:cNvPr id="61" name="Elbow Connector 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7948,7 +7941,7 @@
           <xdr:cNvPr id="62" name="Elbow Connector 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7991,7 +7984,7 @@
           <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8032,7 +8025,7 @@
           <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8073,7 +8066,7 @@
           <xdr:cNvPr id="65" name="TextBox 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8129,7 +8122,7 @@
           <xdr:cNvPr id="66" name="TextBox 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8185,7 +8178,7 @@
           <xdr:cNvPr id="67" name="TextBox 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8241,7 +8234,7 @@
           <xdr:cNvPr id="68" name="TextBox 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8313,7 +8306,7 @@
         <xdr:cNvPr id="69" name="Group 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8332,7 +8325,7 @@
           <xdr:cNvPr id="70" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8428,7 +8421,7 @@
           <xdr:cNvPr id="71" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8544,7 +8537,7 @@
           <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8585,7 +8578,7 @@
           <xdr:cNvPr id="74" name="Flowchart: Decision 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8634,7 +8627,7 @@
           <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8675,7 +8668,7 @@
           <xdr:cNvPr id="76" name="Rectangle 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8803,7 +8796,7 @@
           <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8844,7 +8837,7 @@
           <xdr:cNvPr id="78" name="TextBox 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8898,7 +8891,7 @@
           <xdr:cNvPr id="79" name="TextBox 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8952,7 +8945,7 @@
           <xdr:cNvPr id="80" name="Flowchart: Decision 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9022,7 +9015,7 @@
           <xdr:cNvPr id="81" name="Flowchart: Direct Access Storage 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9121,7 +9114,7 @@
           <xdr:cNvPr id="82" name="TextBox 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000052000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9177,7 +9170,7 @@
           <xdr:cNvPr id="83" name="Flowchart: Decision 82">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000053000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9247,7 +9240,7 @@
           <xdr:cNvPr id="84" name="Straight Arrow Connector 83">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000054000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9288,7 +9281,7 @@
           <xdr:cNvPr id="85" name="Straight Arrow Connector 84">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000055000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9329,7 +9322,7 @@
           <xdr:cNvPr id="86" name="Straight Arrow Connector 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9370,7 +9363,7 @@
           <xdr:cNvPr id="87" name="Rectangle 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9429,7 +9422,7 @@
           <xdr:cNvPr id="88" name="Rectangle 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000058000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9544,7 +9537,7 @@
           <xdr:cNvPr id="89" name="TextBox 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000059000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9600,7 +9593,7 @@
           <xdr:cNvPr id="90" name="TextBox 89">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00005A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9654,7 +9647,7 @@
           <xdr:cNvPr id="91" name="TextBox 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00005B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9708,7 +9701,7 @@
           <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000062000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9749,7 +9742,7 @@
           <xdr:cNvPr id="99" name="Elbow Connector 225">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000063000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9808,7 +9801,7 @@
         <xdr:cNvPr id="105" name="Group 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9827,7 +9820,7 @@
           <xdr:cNvPr id="106" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9923,7 +9916,7 @@
           <xdr:cNvPr id="107" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9998,7 +9991,7 @@
           <xdr:cNvPr id="109" name="Flowchart: Decision 108">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10047,7 +10040,7 @@
           <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10088,7 +10081,7 @@
           <xdr:cNvPr id="111" name="Rectangle 110">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10216,7 +10209,7 @@
           <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000070000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000070000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10257,7 +10250,7 @@
           <xdr:cNvPr id="113" name="TextBox 112">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000071000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000071000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10311,7 +10304,7 @@
           <xdr:cNvPr id="114" name="TextBox 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000072000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000072000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10365,7 +10358,7 @@
           <xdr:cNvPr id="115" name="Flowchart: Decision 114">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000073000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000073000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10435,7 +10428,7 @@
           <xdr:cNvPr id="116" name="Flowchart: Direct Access Storage 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10534,7 +10527,7 @@
           <xdr:cNvPr id="117" name="TextBox 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000075000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000075000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10590,7 +10583,7 @@
           <xdr:cNvPr id="118" name="Flowchart: Decision 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000076000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000076000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10660,7 +10653,7 @@
           <xdr:cNvPr id="119" name="Straight Arrow Connector 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000077000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000077000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10701,7 +10694,7 @@
           <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000078000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000078000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10742,7 +10735,7 @@
           <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000079000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000079000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10783,7 +10776,7 @@
           <xdr:cNvPr id="122" name="Rectangle 121">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10842,7 +10835,7 @@
           <xdr:cNvPr id="123" name="Rectangle 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10957,7 +10950,7 @@
           <xdr:cNvPr id="124" name="TextBox 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11013,7 +11006,7 @@
           <xdr:cNvPr id="125" name="TextBox 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11067,7 +11060,7 @@
           <xdr:cNvPr id="126" name="TextBox 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11121,7 +11114,7 @@
           <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000085000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000085000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11162,7 +11155,7 @@
           <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000086000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11203,7 +11196,7 @@
           <xdr:cNvPr id="135" name="Flowchart: Decision 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000087000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000087000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11252,7 +11245,7 @@
           <xdr:cNvPr id="136" name="Elbow Connector 225">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000088000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11295,7 +11288,7 @@
           <xdr:cNvPr id="137" name="Flowchart: Decision 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000089000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11400,7 +11393,7 @@
           <xdr:cNvPr id="138" name="Elbow Connector 225">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00008A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11443,7 +11436,7 @@
           <xdr:cNvPr id="139" name="Straight Arrow Connector 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00008B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11484,7 +11477,7 @@
           <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00008C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11525,7 +11518,7 @@
           <xdr:cNvPr id="141" name="Elbow Connector 225">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00008D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11568,7 +11561,7 @@
           <xdr:cNvPr id="142" name="TextBox 141">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00008E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11622,7 +11615,7 @@
           <xdr:cNvPr id="143" name="TextBox 142">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00008F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11676,7 +11669,7 @@
           <xdr:cNvPr id="144" name="TextBox 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000090000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000090000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11730,7 +11723,7 @@
           <xdr:cNvPr id="145" name="TextBox 144">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000091000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000091000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11904,23 +11897,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -11956,23 +11932,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12151,7 +12110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23:J23"/>
     </sheetView>
   </sheetViews>
@@ -12168,10 +12127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12198,8 +12157,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12216,13 +12175,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -12238,14 +12197,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="40">
@@ -12260,14 +12219,14 @@
       <c r="D5" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -12294,12 +12253,12 @@
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -12310,12 +12269,12 @@
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -12326,12 +12285,12 @@
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -12342,12 +12301,12 @@
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -12358,12 +12317,12 @@
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -12374,12 +12333,12 @@
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -12390,12 +12349,12 @@
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -12406,12 +12365,12 @@
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -12422,12 +12381,12 @@
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -12438,12 +12397,12 @@
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -12454,12 +12413,12 @@
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -12470,12 +12429,12 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -12486,12 +12445,12 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -12502,12 +12461,12 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -12518,12 +12477,12 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -12534,12 +12493,12 @@
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -12550,12 +12509,12 @@
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -12566,12 +12525,12 @@
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -12582,12 +12541,12 @@
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -12598,12 +12557,12 @@
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -12614,12 +12573,12 @@
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -12630,12 +12589,12 @@
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -12646,12 +12605,12 @@
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -12662,12 +12621,12 @@
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -12678,12 +12637,12 @@
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -12694,12 +12653,12 @@
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -12710,12 +12669,12 @@
       </c>
       <c r="C33" s="77"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -12726,12 +12685,12 @@
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -12742,12 +12701,12 @@
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -12758,12 +12717,12 @@
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -12774,12 +12733,12 @@
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -12790,12 +12749,12 @@
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -12806,12 +12765,12 @@
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -12822,12 +12781,12 @@
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -12838,12 +12797,12 @@
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -12854,23 +12813,32 @@
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -12886,23 +12854,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -12946,10 +12905,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12980,8 +12939,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13659,12 +13618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13697,10 +13656,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -13845,7 +13804,7 @@
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
       <c r="O6" s="86" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="45" customHeight="1">
@@ -13881,7 +13840,7 @@
       <c r="L7" s="86"/>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
-      <c r="O7" s="145"/>
+      <c r="O7" s="144"/>
     </row>
     <row r="8" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -14395,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="125" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
@@ -14689,10 +14648,10 @@
       </c>
       <c r="L30" s="61"/>
       <c r="M30" s="60"/>
-      <c r="N30" s="139">
+      <c r="N30" s="138">
         <v>0</v>
       </c>
-      <c r="O30" s="144" t="s">
+      <c r="O30" s="143" t="s">
         <v>289</v>
       </c>
     </row>
@@ -14728,10 +14687,10 @@
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="60"/>
-      <c r="N31" s="139">
+      <c r="N31" s="138">
         <v>0</v>
       </c>
-      <c r="O31" s="144" t="s">
+      <c r="O31" s="143" t="s">
         <v>290</v>
       </c>
     </row>
@@ -14767,10 +14726,10 @@
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="60"/>
-      <c r="N32" s="139">
+      <c r="N32" s="138">
         <v>0</v>
       </c>
-      <c r="O32" s="144" t="s">
+      <c r="O32" s="143" t="s">
         <v>289</v>
       </c>
     </row>
@@ -14806,10 +14765,10 @@
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="60"/>
-      <c r="N33" s="139">
+      <c r="N33" s="138">
         <v>0</v>
       </c>
-      <c r="O33" s="144" t="s">
+      <c r="O33" s="143" t="s">
         <v>289</v>
       </c>
     </row>
@@ -15094,11 +15053,11 @@
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="60"/>
-      <c r="N41" s="139">
+      <c r="N41" s="138">
         <v>0</v>
       </c>
       <c r="O41" s="62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
@@ -15133,11 +15092,11 @@
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="60"/>
-      <c r="N42" s="137" t="s">
+      <c r="N42" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" s="182" t="s">
         <v>315</v>
-      </c>
-      <c r="O42" s="182" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
@@ -15172,8 +15131,8 @@
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="60"/>
-      <c r="N43" s="137" t="s">
-        <v>315</v>
+      <c r="N43" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O43" s="183"/>
     </row>
@@ -15209,8 +15168,8 @@
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="60"/>
-      <c r="N44" s="137" t="s">
-        <v>315</v>
+      <c r="N44" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O44" s="183"/>
     </row>
@@ -15246,8 +15205,8 @@
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="60"/>
-      <c r="N45" s="137" t="s">
-        <v>315</v>
+      <c r="N45" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O45" s="183"/>
     </row>
@@ -15283,8 +15242,8 @@
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="60"/>
-      <c r="N46" s="137" t="s">
-        <v>315</v>
+      <c r="N46" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O46" s="183"/>
     </row>
@@ -15320,8 +15279,8 @@
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="60"/>
-      <c r="N47" s="137" t="s">
-        <v>315</v>
+      <c r="N47" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O47" s="183"/>
     </row>
@@ -15357,8 +15316,8 @@
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="60"/>
-      <c r="N48" s="137" t="s">
-        <v>315</v>
+      <c r="N48" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O48" s="183"/>
     </row>
@@ -15394,8 +15353,8 @@
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="60"/>
-      <c r="N49" s="137" t="s">
-        <v>315</v>
+      <c r="N49" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O49" s="183"/>
     </row>
@@ -15431,8 +15390,8 @@
       </c>
       <c r="L50" s="61"/>
       <c r="M50" s="60"/>
-      <c r="N50" s="137" t="s">
-        <v>315</v>
+      <c r="N50" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O50" s="183"/>
     </row>
@@ -15470,8 +15429,8 @@
         <v>246</v>
       </c>
       <c r="M51" s="60"/>
-      <c r="N51" s="137" t="s">
-        <v>315</v>
+      <c r="N51" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O51" s="183"/>
     </row>
@@ -15507,8 +15466,8 @@
       </c>
       <c r="L52" s="61"/>
       <c r="M52" s="60"/>
-      <c r="N52" s="137" t="s">
-        <v>315</v>
+      <c r="N52" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O52" s="183"/>
     </row>
@@ -15544,8 +15503,8 @@
       </c>
       <c r="L53" s="61"/>
       <c r="M53" s="60"/>
-      <c r="N53" s="137" t="s">
-        <v>315</v>
+      <c r="N53" s="136" t="s">
+        <v>313</v>
       </c>
       <c r="O53" s="184"/>
     </row>
@@ -15575,7 +15534,7 @@
       <c r="K54" s="40"/>
       <c r="L54" s="61"/>
       <c r="M54" s="60"/>
-      <c r="N54" s="137" t="s">
+      <c r="N54" s="136" t="s">
         <v>277</v>
       </c>
       <c r="O54" s="174" t="s">
@@ -15608,7 +15567,7 @@
       <c r="K55" s="40"/>
       <c r="L55" s="61"/>
       <c r="M55" s="60"/>
-      <c r="N55" s="137" t="s">
+      <c r="N55" s="136" t="s">
         <v>277</v>
       </c>
       <c r="O55" s="176"/>
@@ -15637,7 +15596,7 @@
       <c r="K56" s="40"/>
       <c r="L56" s="61"/>
       <c r="M56" s="60"/>
-      <c r="N56" s="137" t="s">
+      <c r="N56" s="136" t="s">
         <v>277</v>
       </c>
       <c r="O56" s="175"/>
@@ -15668,7 +15627,7 @@
       <c r="K57" s="40"/>
       <c r="L57" s="61"/>
       <c r="M57" s="60"/>
-      <c r="N57" s="137" t="s">
+      <c r="N57" s="136" t="s">
         <v>277</v>
       </c>
       <c r="O57" s="174" t="s">
@@ -15701,7 +15660,7 @@
       <c r="K58" s="40"/>
       <c r="L58" s="61"/>
       <c r="M58" s="60"/>
-      <c r="N58" s="137" t="s">
+      <c r="N58" s="136" t="s">
         <v>277</v>
       </c>
       <c r="O58" s="175"/>
@@ -16009,21 +15968,21 @@
         <v>134</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="61"/>
       <c r="G10" s="86" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H10" s="82" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I10" s="62" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J10" s="82"/>
     </row>
@@ -16812,7 +16771,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="113"/>
@@ -16848,7 +16807,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
+      <c r="A2" s="191"/>
       <c r="B2" s="114"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -16897,15 +16856,15 @@
       <c r="E4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153" t="s">
+      <c r="G4" s="152"/>
+      <c r="H4" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -16915,11 +16874,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="191"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="187"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -16929,11 +16888,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="191"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="187"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -16943,11 +16902,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -16957,11 +16916,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -16971,11 +16930,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="191"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -16985,11 +16944,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="187"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -16999,11 +16958,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="187"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -17013,11 +16972,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="187"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -17027,11 +16986,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="191"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -17041,11 +17000,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="187"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -17055,11 +17014,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="191"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -17069,11 +17028,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="191"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -17083,11 +17042,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="191"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="187"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -17097,11 +17056,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="191"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -17111,11 +17070,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="191"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -17125,11 +17084,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="191"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="187"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -17139,11 +17098,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="187"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -17153,11 +17112,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="191"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="187"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -17167,11 +17126,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="191"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -17181,11 +17140,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -17195,11 +17154,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="191"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="187"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -17209,11 +17168,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -17223,11 +17182,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="191"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="187"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -17237,11 +17196,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="191"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="187"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -17251,11 +17210,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="191"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -17265,11 +17224,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="191"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="187"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -17279,11 +17238,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="187"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -17293,11 +17252,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -17314,11 +17273,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="191"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="187"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -17335,11 +17294,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="191"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="187"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -17356,11 +17315,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="187"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -17377,11 +17336,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="191"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="187"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -17398,11 +17357,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="191"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="187"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -17419,11 +17378,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="187"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -17440,11 +17399,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="191"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="187"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -17461,11 +17420,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="191"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="187"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -17482,11 +17441,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="187"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -17503,11 +17462,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="191"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="187"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -17524,11 +17483,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="191"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="187"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -17545,11 +17504,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="191"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="187"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -17566,11 +17525,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="190"/>
-      <c r="J45" s="191"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="187"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -17587,11 +17546,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="190"/>
-      <c r="J46" s="191"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="187"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -17608,11 +17567,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="191"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="187"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -17629,11 +17588,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="190"/>
-      <c r="J48" s="191"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="185"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="187"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -17650,11 +17609,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="190"/>
-      <c r="J49" s="191"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="187"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -17671,11 +17630,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="191"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="187"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -17692,11 +17651,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="191"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="185"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="187"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -17713,11 +17672,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="190"/>
-      <c r="J52" s="191"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="185"/>
+      <c r="I52" s="186"/>
+      <c r="J52" s="187"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -17734,11 +17693,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="190"/>
-      <c r="J53" s="191"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="185"/>
+      <c r="I53" s="186"/>
+      <c r="J53" s="187"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -17755,11 +17714,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="189"/>
-      <c r="I54" s="190"/>
-      <c r="J54" s="191"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="186"/>
+      <c r="J54" s="187"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -17776,11 +17735,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="189"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="191"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="185"/>
+      <c r="I55" s="186"/>
+      <c r="J55" s="187"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -17797,11 +17756,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="149"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="191"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="185"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="187"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -17813,6 +17772,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -17827,99 +17879,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -17937,8 +17896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048473"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -17948,10 +17907,10 @@
     <col min="4" max="4" width="10.42578125" style="22" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="135" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="135" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="135" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="134" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="134" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="134" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="134" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="23" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="23" customWidth="1"/>
     <col min="13" max="14" width="14.140625" style="23" customWidth="1"/>
@@ -17962,20 +17921,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="198" t="str">
+      <c r="F1" s="192" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="198"/>
+      <c r="G1" s="192"/>
       <c r="H1" s="103" t="s">
         <v>3</v>
       </c>
@@ -18003,18 +17962,18 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="198" t="str">
+      <c r="F2" s="192" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="198"/>
+      <c r="G2" s="192"/>
       <c r="H2" s="103" t="s">
         <v>49</v>
       </c>
@@ -18057,7 +18016,7 @@
       <c r="E4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="137" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="159" t="s">
@@ -18092,25 +18051,25 @@
       <c r="C5" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="140" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="195" t="s">
+      <c r="G5" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="142" t="s">
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="L5" s="142" t="s">
+      <c r="L5" s="141" t="s">
         <v>302</v>
       </c>
       <c r="M5" s="74" t="s">
@@ -18141,15 +18100,15 @@
       <c r="E6" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="192" t="s">
-        <v>332</v>
-      </c>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
+      <c r="G6" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="74" t="s">
@@ -18180,15 +18139,15 @@
       <c r="E7" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="135" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="192" t="s">
-        <v>351</v>
-      </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="G7" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
       <c r="K7" s="120" t="s">
         <v>279</v>
       </c>
@@ -18202,7 +18161,7 @@
         <v>274</v>
       </c>
       <c r="O7" s="119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P7" s="63"/>
       <c r="Q7" s="63"/>
@@ -18223,15 +18182,15 @@
       <c r="E8" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="192" t="s">
-        <v>308</v>
-      </c>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="G8" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
       <c r="K8" s="120" t="s">
         <v>279</v>
       </c>
@@ -18266,17 +18225,21 @@
       <c r="E9" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="192" t="s">
-        <v>352</v>
-      </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="G9" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="145" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="145" t="s">
+        <v>279</v>
+      </c>
       <c r="M9" s="74" t="s">
         <v>303</v>
       </c>
@@ -18289,7 +18252,7 @@
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
     </row>
-    <row r="10" spans="1:17" s="34" customFormat="1" ht="63" customHeight="1">
+    <row r="10" spans="1:17" s="34" customFormat="1" ht="83.25" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
@@ -18305,20 +18268,20 @@
       <c r="E10" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="136" t="s">
+      <c r="F10" s="135" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="192" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="134" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="120" t="s">
-        <v>306</v>
+      <c r="G10" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="145" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="145" t="s">
+        <v>358</v>
       </c>
       <c r="M10" s="74" t="s">
         <v>303</v>
@@ -18348,15 +18311,15 @@
       <c r="E11" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="G11" s="150" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
+      <c r="G11" s="149" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
       <c r="K11" s="120" t="s">
         <v>273</v>
       </c>
@@ -18389,15 +18352,15 @@
       <c r="E12" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="136" t="s">
+      <c r="F12" s="135" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="150" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
+      <c r="G12" s="149" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="151"/>
       <c r="K12" s="120" t="s">
         <v>279</v>
       </c>
@@ -18428,15 +18391,15 @@
       <c r="E13" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="136" t="s">
+      <c r="F13" s="135" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="150" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
+      <c r="G13" s="149" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
       <c r="K13" s="120" t="s">
         <v>279</v>
       </c>
@@ -18467,15 +18430,15 @@
       <c r="E14" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="136" t="s">
+      <c r="F14" s="135" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="150" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
+      <c r="G14" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
       <c r="K14" s="120" t="s">
         <v>287</v>
       </c>
@@ -18498,28 +18461,28 @@
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="136" t="s">
+      <c r="F15" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="149" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="120" t="s">
         <v>311</v>
       </c>
-      <c r="G15" s="150" t="s">
-        <v>337</v>
-      </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="120" t="s">
-        <v>313</v>
-      </c>
       <c r="L15" s="120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M15" s="74" t="s">
         <v>286</v>
@@ -18540,10 +18503,10 @@
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
       <c r="K16" s="87"/>
       <c r="L16" s="87"/>
       <c r="M16" s="74"/>
@@ -18561,10 +18524,10 @@
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
       <c r="K17" s="87"/>
       <c r="L17" s="87"/>
       <c r="M17" s="74"/>
@@ -18582,10 +18545,10 @@
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
       <c r="M18" s="74"/>
@@ -18603,10 +18566,10 @@
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
       <c r="K19" s="83"/>
       <c r="L19" s="83"/>
       <c r="M19" s="74"/>
@@ -18624,10 +18587,10 @@
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
       <c r="M20" s="74"/>
@@ -18645,10 +18608,10 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
       <c r="M21" s="74"/>
@@ -18666,10 +18629,10 @@
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
       <c r="K22" s="70"/>
       <c r="L22" s="59"/>
       <c r="M22" s="74"/>
@@ -18687,10 +18650,10 @@
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
       <c r="M23" s="74"/>
@@ -18708,10 +18671,10 @@
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
       <c r="M24" s="74"/>
@@ -18729,10 +18692,10 @@
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
       <c r="M25" s="74"/>
@@ -18750,10 +18713,10 @@
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
       <c r="M26" s="74"/>
@@ -18771,10 +18734,10 @@
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
       <c r="M27" s="74"/>
@@ -18792,10 +18755,10 @@
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
       <c r="M28" s="74"/>
@@ -18813,10 +18776,10 @@
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
       <c r="M29" s="74"/>
@@ -18834,10 +18797,10 @@
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
       <c r="M30" s="74"/>
@@ -18855,10 +18818,10 @@
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
       <c r="M31" s="74"/>
@@ -18876,10 +18839,10 @@
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
       <c r="M32" s="74"/>
@@ -18897,10 +18860,10 @@
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
       <c r="M33" s="74"/>
@@ -18918,10 +18881,10 @@
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
       <c r="M34" s="74"/>
@@ -18939,10 +18902,10 @@
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="151"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="74"/>
@@ -18960,10 +18923,10 @@
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="151"/>
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
       <c r="M36" s="74"/>
@@ -18981,10 +18944,10 @@
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="151"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
       <c r="M37" s="74"/>
@@ -19002,10 +18965,10 @@
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="152"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
       <c r="M38" s="74"/>
@@ -19023,10 +18986,10 @@
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="74"/>
@@ -19044,10 +19007,10 @@
       <c r="D40" s="62"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
       <c r="K40" s="83"/>
       <c r="L40" s="83"/>
       <c r="M40" s="74"/>
@@ -19065,10 +19028,10 @@
       <c r="D41" s="62"/>
       <c r="E41" s="62"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
       <c r="M41" s="74"/>
@@ -19086,10 +19049,10 @@
       <c r="D42" s="62"/>
       <c r="E42" s="62"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="152"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="151"/>
       <c r="K42" s="59"/>
       <c r="L42" s="59"/>
       <c r="M42" s="74"/>
@@ -19107,10 +19070,10 @@
       <c r="D43" s="62"/>
       <c r="E43" s="62"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="152"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="151"/>
       <c r="K43" s="59"/>
       <c r="L43" s="59"/>
       <c r="M43" s="74"/>
@@ -19128,10 +19091,10 @@
       <c r="D44" s="62"/>
       <c r="E44" s="62"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="152"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="151"/>
       <c r="K44" s="59"/>
       <c r="L44" s="59"/>
       <c r="M44" s="74"/>
@@ -19149,10 +19112,10 @@
       <c r="D45" s="62"/>
       <c r="E45" s="62"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="152"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="59"/>
       <c r="L45" s="59"/>
       <c r="M45" s="74"/>
@@ -19170,10 +19133,10 @@
       <c r="D46" s="62"/>
       <c r="E46" s="62"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="152"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="151"/>
       <c r="K46" s="72"/>
       <c r="L46" s="72"/>
       <c r="M46" s="74"/>
@@ -19191,10 +19154,10 @@
       <c r="D47" s="62"/>
       <c r="E47" s="62"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="152"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="151"/>
       <c r="K47" s="72"/>
       <c r="L47" s="72"/>
       <c r="M47" s="74"/>
@@ -19212,10 +19175,10 @@
       <c r="D48" s="62"/>
       <c r="E48" s="62"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
       <c r="K48" s="72"/>
       <c r="L48" s="72"/>
       <c r="M48" s="74"/>
@@ -19233,10 +19196,10 @@
       <c r="D49" s="62"/>
       <c r="E49" s="62"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="152"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="151"/>
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
       <c r="M49" s="74"/>
@@ -19254,10 +19217,10 @@
       <c r="D50" s="62"/>
       <c r="E50" s="62"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="152"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="151"/>
       <c r="K50" s="72"/>
       <c r="L50" s="72"/>
       <c r="M50" s="74"/>
@@ -19275,10 +19238,10 @@
       <c r="D51" s="62"/>
       <c r="E51" s="62"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="151"/>
       <c r="K51" s="72"/>
       <c r="L51" s="72"/>
       <c r="M51" s="74"/>
@@ -19296,10 +19259,10 @@
       <c r="D52" s="62"/>
       <c r="E52" s="62"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="152"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="151"/>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
       <c r="M52" s="74"/>
@@ -19317,10 +19280,10 @@
       <c r="D53" s="62"/>
       <c r="E53" s="62"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="152"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
       <c r="M53" s="74"/>
@@ -19338,10 +19301,10 @@
       <c r="D54" s="62"/>
       <c r="E54" s="62"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="152"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="151"/>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
       <c r="M54" s="74"/>
@@ -19359,10 +19322,10 @@
       <c r="D55" s="62"/>
       <c r="E55" s="62"/>
       <c r="F55" s="40"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="152"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="151"/>
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
       <c r="M55" s="74"/>
@@ -19380,10 +19343,10 @@
       <c r="D56" s="62"/>
       <c r="E56" s="62"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="152"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="151"/>
       <c r="K56" s="72"/>
       <c r="L56" s="72"/>
       <c r="M56" s="74"/>
@@ -19401,10 +19364,10 @@
       <c r="D57" s="62"/>
       <c r="E57" s="62"/>
       <c r="F57" s="40"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="152"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="151"/>
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
       <c r="M57" s="74"/>
@@ -19422,10 +19385,10 @@
       <c r="D58" s="62"/>
       <c r="E58" s="62"/>
       <c r="F58" s="40"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="152"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="151"/>
       <c r="K58" s="72"/>
       <c r="L58" s="72"/>
       <c r="M58" s="74"/>
@@ -19443,10 +19406,10 @@
       <c r="D59" s="62"/>
       <c r="E59" s="62"/>
       <c r="F59" s="40"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="152"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="151"/>
       <c r="K59" s="72"/>
       <c r="L59" s="72"/>
       <c r="M59" s="74"/>
@@ -19464,10 +19427,10 @@
       <c r="D60" s="62"/>
       <c r="E60" s="62"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
-      <c r="J60" s="152"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="151"/>
       <c r="K60" s="72"/>
       <c r="L60" s="72"/>
       <c r="M60" s="74"/>
@@ -19485,10 +19448,10 @@
       <c r="D61" s="62"/>
       <c r="E61" s="62"/>
       <c r="F61" s="40"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="152"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="151"/>
       <c r="K61" s="72"/>
       <c r="L61" s="72"/>
       <c r="M61" s="74"/>
@@ -19506,10 +19469,10 @@
       <c r="D62" s="62"/>
       <c r="E62" s="62"/>
       <c r="F62" s="40"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="152"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="150"/>
+      <c r="I62" s="150"/>
+      <c r="J62" s="151"/>
       <c r="K62" s="72"/>
       <c r="L62" s="72"/>
       <c r="M62" s="74"/>
@@ -19527,10 +19490,10 @@
       <c r="D63" s="62"/>
       <c r="E63" s="62"/>
       <c r="F63" s="40"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="152"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="151"/>
       <c r="K63" s="72"/>
       <c r="L63" s="72"/>
       <c r="M63" s="74"/>
@@ -19548,10 +19511,10 @@
       <c r="D64" s="62"/>
       <c r="E64" s="62"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="152"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="151"/>
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
       <c r="M64" s="74"/>
@@ -19569,10 +19532,10 @@
       <c r="D65" s="62"/>
       <c r="E65" s="62"/>
       <c r="F65" s="40"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="152"/>
+      <c r="G65" s="149"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="151"/>
       <c r="K65" s="72"/>
       <c r="L65" s="72"/>
       <c r="M65" s="74"/>
@@ -19590,10 +19553,10 @@
       <c r="D66" s="62"/>
       <c r="E66" s="62"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="152"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="151"/>
       <c r="K66" s="72"/>
       <c r="L66" s="72"/>
       <c r="M66" s="74"/>
@@ -19611,10 +19574,10 @@
       <c r="D67" s="62"/>
       <c r="E67" s="62"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="152"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="151"/>
       <c r="K67" s="72"/>
       <c r="L67" s="72"/>
       <c r="M67" s="74"/>
@@ -19632,10 +19595,10 @@
       <c r="D68" s="62"/>
       <c r="E68" s="62"/>
       <c r="F68" s="40"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="152"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="150"/>
+      <c r="I68" s="150"/>
+      <c r="J68" s="151"/>
       <c r="K68" s="82"/>
       <c r="L68" s="82"/>
       <c r="M68" s="74"/>
@@ -19653,10 +19616,10 @@
       <c r="D69" s="62"/>
       <c r="E69" s="62"/>
       <c r="F69" s="40"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="152"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="150"/>
+      <c r="I69" s="150"/>
+      <c r="J69" s="151"/>
       <c r="K69" s="82"/>
       <c r="L69" s="82"/>
       <c r="M69" s="74"/>
@@ -19674,10 +19637,10 @@
       <c r="D70" s="62"/>
       <c r="E70" s="62"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="152"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="151"/>
       <c r="K70" s="82"/>
       <c r="L70" s="82"/>
       <c r="M70" s="74"/>
@@ -19693,10 +19656,10 @@
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="152"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="150"/>
+      <c r="I71" s="150"/>
+      <c r="J71" s="151"/>
       <c r="K71" s="82"/>
       <c r="L71" s="82"/>
       <c r="M71" s="74"/>
@@ -19712,10 +19675,10 @@
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="150"/>
-      <c r="H72" s="151"/>
-      <c r="I72" s="151"/>
-      <c r="J72" s="152"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="150"/>
+      <c r="I72" s="150"/>
+      <c r="J72" s="151"/>
       <c r="K72" s="82"/>
       <c r="L72" s="82"/>
       <c r="M72" s="74"/>
@@ -19731,10 +19694,10 @@
       <c r="D73" s="62"/>
       <c r="E73" s="62"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="150"/>
-      <c r="H73" s="151"/>
-      <c r="I73" s="151"/>
-      <c r="J73" s="152"/>
+      <c r="G73" s="149"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="150"/>
+      <c r="J73" s="151"/>
       <c r="K73" s="82"/>
       <c r="L73" s="82"/>
       <c r="M73" s="74"/>
@@ -19750,10 +19713,10 @@
       <c r="D74" s="62"/>
       <c r="E74" s="62"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="151"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="152"/>
+      <c r="G74" s="149"/>
+      <c r="H74" s="150"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="151"/>
       <c r="K74" s="82"/>
       <c r="L74" s="82"/>
       <c r="M74" s="74"/>
@@ -19769,10 +19732,10 @@
       <c r="D75" s="62"/>
       <c r="E75" s="62"/>
       <c r="F75" s="40"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="151"/>
-      <c r="I75" s="151"/>
-      <c r="J75" s="152"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="150"/>
+      <c r="I75" s="150"/>
+      <c r="J75" s="151"/>
       <c r="K75" s="82"/>
       <c r="L75" s="82"/>
       <c r="M75" s="74"/>
@@ -19788,10 +19751,10 @@
       <c r="D76" s="62"/>
       <c r="E76" s="62"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="150"/>
-      <c r="H76" s="151"/>
-      <c r="I76" s="151"/>
-      <c r="J76" s="152"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="150"/>
+      <c r="I76" s="150"/>
+      <c r="J76" s="151"/>
       <c r="K76" s="82"/>
       <c r="L76" s="82"/>
       <c r="M76" s="74"/>
@@ -19807,10 +19770,10 @@
       <c r="D77" s="62"/>
       <c r="E77" s="62"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="150"/>
-      <c r="H77" s="151"/>
-      <c r="I77" s="151"/>
-      <c r="J77" s="152"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="150"/>
+      <c r="I77" s="150"/>
+      <c r="J77" s="151"/>
       <c r="K77" s="82"/>
       <c r="L77" s="82"/>
       <c r="M77" s="74"/>
@@ -19826,10 +19789,10 @@
       <c r="D78" s="62"/>
       <c r="E78" s="62"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="151"/>
-      <c r="I78" s="151"/>
-      <c r="J78" s="152"/>
+      <c r="G78" s="149"/>
+      <c r="H78" s="150"/>
+      <c r="I78" s="150"/>
+      <c r="J78" s="151"/>
       <c r="K78" s="82"/>
       <c r="L78" s="82"/>
       <c r="M78" s="74"/>
@@ -19845,10 +19808,10 @@
       <c r="D79" s="62"/>
       <c r="E79" s="62"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="150"/>
-      <c r="H79" s="151"/>
-      <c r="I79" s="151"/>
-      <c r="J79" s="152"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="150"/>
+      <c r="I79" s="150"/>
+      <c r="J79" s="151"/>
       <c r="K79" s="82"/>
       <c r="L79" s="82"/>
       <c r="M79" s="74"/>
@@ -19864,10 +19827,10 @@
       <c r="D80" s="62"/>
       <c r="E80" s="62"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="151"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="152"/>
+      <c r="G80" s="149"/>
+      <c r="H80" s="150"/>
+      <c r="I80" s="150"/>
+      <c r="J80" s="151"/>
       <c r="K80" s="82"/>
       <c r="L80" s="82"/>
       <c r="M80" s="74"/>
@@ -19883,10 +19846,10 @@
       <c r="D81" s="62"/>
       <c r="E81" s="62"/>
       <c r="F81" s="40"/>
-      <c r="G81" s="150"/>
-      <c r="H81" s="151"/>
-      <c r="I81" s="151"/>
-      <c r="J81" s="152"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="150"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="151"/>
       <c r="K81" s="82"/>
       <c r="L81" s="82"/>
       <c r="M81" s="74"/>
@@ -19902,10 +19865,10 @@
       <c r="D82" s="62"/>
       <c r="E82" s="62"/>
       <c r="F82" s="40"/>
-      <c r="G82" s="150"/>
-      <c r="H82" s="151"/>
-      <c r="I82" s="151"/>
-      <c r="J82" s="152"/>
+      <c r="G82" s="149"/>
+      <c r="H82" s="150"/>
+      <c r="I82" s="150"/>
+      <c r="J82" s="151"/>
       <c r="K82" s="82"/>
       <c r="L82" s="82"/>
       <c r="M82" s="74"/>
@@ -19921,10 +19884,10 @@
       <c r="D83" s="62"/>
       <c r="E83" s="62"/>
       <c r="F83" s="40"/>
-      <c r="G83" s="150"/>
-      <c r="H83" s="151"/>
-      <c r="I83" s="151"/>
-      <c r="J83" s="152"/>
+      <c r="G83" s="149"/>
+      <c r="H83" s="150"/>
+      <c r="I83" s="150"/>
+      <c r="J83" s="151"/>
       <c r="K83" s="82"/>
       <c r="L83" s="82"/>
       <c r="M83" s="74"/>
@@ -19940,10 +19903,10 @@
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="150"/>
-      <c r="H84" s="151"/>
-      <c r="I84" s="151"/>
-      <c r="J84" s="152"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="150"/>
+      <c r="I84" s="150"/>
+      <c r="J84" s="151"/>
       <c r="K84" s="82"/>
       <c r="L84" s="82"/>
       <c r="M84" s="74"/>
@@ -19959,10 +19922,10 @@
       <c r="D85" s="62"/>
       <c r="E85" s="62"/>
       <c r="F85" s="40"/>
-      <c r="G85" s="150"/>
-      <c r="H85" s="151"/>
-      <c r="I85" s="151"/>
-      <c r="J85" s="152"/>
+      <c r="G85" s="149"/>
+      <c r="H85" s="150"/>
+      <c r="I85" s="150"/>
+      <c r="J85" s="151"/>
       <c r="K85" s="82"/>
       <c r="L85" s="82"/>
       <c r="M85" s="74"/>
@@ -19978,10 +19941,10 @@
       <c r="D86" s="62"/>
       <c r="E86" s="62"/>
       <c r="F86" s="40"/>
-      <c r="G86" s="150"/>
-      <c r="H86" s="151"/>
-      <c r="I86" s="151"/>
-      <c r="J86" s="152"/>
+      <c r="G86" s="149"/>
+      <c r="H86" s="150"/>
+      <c r="I86" s="150"/>
+      <c r="J86" s="151"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
       <c r="M86" s="74"/>
@@ -19997,10 +19960,10 @@
       <c r="D87" s="62"/>
       <c r="E87" s="62"/>
       <c r="F87" s="40"/>
-      <c r="G87" s="150"/>
-      <c r="H87" s="151"/>
-      <c r="I87" s="151"/>
-      <c r="J87" s="152"/>
+      <c r="G87" s="149"/>
+      <c r="H87" s="150"/>
+      <c r="I87" s="150"/>
+      <c r="J87" s="151"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
       <c r="M87" s="74"/>
@@ -20016,10 +19979,10 @@
       <c r="D88" s="62"/>
       <c r="E88" s="62"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="150"/>
-      <c r="H88" s="151"/>
-      <c r="I88" s="151"/>
-      <c r="J88" s="152"/>
+      <c r="G88" s="149"/>
+      <c r="H88" s="150"/>
+      <c r="I88" s="150"/>
+      <c r="J88" s="151"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
       <c r="M88" s="74"/>
@@ -20035,10 +19998,10 @@
       <c r="D89" s="62"/>
       <c r="E89" s="62"/>
       <c r="F89" s="40"/>
-      <c r="G89" s="150"/>
-      <c r="H89" s="151"/>
-      <c r="I89" s="151"/>
-      <c r="J89" s="152"/>
+      <c r="G89" s="149"/>
+      <c r="H89" s="150"/>
+      <c r="I89" s="150"/>
+      <c r="J89" s="151"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
       <c r="M89" s="74"/>
@@ -20054,10 +20017,10 @@
       <c r="D90" s="62"/>
       <c r="E90" s="62"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="150"/>
-      <c r="H90" s="151"/>
-      <c r="I90" s="151"/>
-      <c r="J90" s="152"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="150"/>
+      <c r="I90" s="150"/>
+      <c r="J90" s="151"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
       <c r="M90" s="74"/>
@@ -20073,10 +20036,10 @@
       <c r="D91" s="62"/>
       <c r="E91" s="62"/>
       <c r="F91" s="40"/>
-      <c r="G91" s="150"/>
-      <c r="H91" s="151"/>
-      <c r="I91" s="151"/>
-      <c r="J91" s="152"/>
+      <c r="G91" s="149"/>
+      <c r="H91" s="150"/>
+      <c r="I91" s="150"/>
+      <c r="J91" s="151"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
       <c r="M91" s="74"/>
@@ -20092,10 +20055,10 @@
       <c r="D92" s="62"/>
       <c r="E92" s="62"/>
       <c r="F92" s="40"/>
-      <c r="G92" s="150"/>
-      <c r="H92" s="151"/>
-      <c r="I92" s="151"/>
-      <c r="J92" s="152"/>
+      <c r="G92" s="149"/>
+      <c r="H92" s="150"/>
+      <c r="I92" s="150"/>
+      <c r="J92" s="151"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
       <c r="M92" s="74"/>
@@ -20111,10 +20074,10 @@
       <c r="D93" s="62"/>
       <c r="E93" s="62"/>
       <c r="F93" s="40"/>
-      <c r="G93" s="150"/>
-      <c r="H93" s="151"/>
-      <c r="I93" s="151"/>
-      <c r="J93" s="152"/>
+      <c r="G93" s="149"/>
+      <c r="H93" s="150"/>
+      <c r="I93" s="150"/>
+      <c r="J93" s="151"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
       <c r="M93" s="74"/>
@@ -20130,10 +20093,10 @@
       <c r="D94" s="62"/>
       <c r="E94" s="62"/>
       <c r="F94" s="40"/>
-      <c r="G94" s="150"/>
-      <c r="H94" s="151"/>
-      <c r="I94" s="151"/>
-      <c r="J94" s="152"/>
+      <c r="G94" s="149"/>
+      <c r="H94" s="150"/>
+      <c r="I94" s="150"/>
+      <c r="J94" s="151"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
       <c r="M94" s="74"/>
@@ -20149,10 +20112,10 @@
       <c r="D95" s="62"/>
       <c r="E95" s="62"/>
       <c r="F95" s="40"/>
-      <c r="G95" s="150"/>
-      <c r="H95" s="151"/>
-      <c r="I95" s="151"/>
-      <c r="J95" s="152"/>
+      <c r="G95" s="149"/>
+      <c r="H95" s="150"/>
+      <c r="I95" s="150"/>
+      <c r="J95" s="151"/>
       <c r="K95" s="82"/>
       <c r="L95" s="82"/>
       <c r="M95" s="74"/>
@@ -20168,10 +20131,10 @@
       <c r="D96" s="62"/>
       <c r="E96" s="62"/>
       <c r="F96" s="40"/>
-      <c r="G96" s="150"/>
-      <c r="H96" s="151"/>
-      <c r="I96" s="151"/>
-      <c r="J96" s="152"/>
+      <c r="G96" s="149"/>
+      <c r="H96" s="150"/>
+      <c r="I96" s="150"/>
+      <c r="J96" s="151"/>
       <c r="K96" s="82"/>
       <c r="L96" s="82"/>
       <c r="M96" s="74"/>
@@ -20187,10 +20150,10 @@
       <c r="D97" s="62"/>
       <c r="E97" s="62"/>
       <c r="F97" s="40"/>
-      <c r="G97" s="150"/>
-      <c r="H97" s="151"/>
-      <c r="I97" s="151"/>
-      <c r="J97" s="152"/>
+      <c r="G97" s="149"/>
+      <c r="H97" s="150"/>
+      <c r="I97" s="150"/>
+      <c r="J97" s="151"/>
       <c r="K97" s="82"/>
       <c r="L97" s="82"/>
       <c r="M97" s="74"/>
@@ -20206,10 +20169,10 @@
       <c r="D98" s="62"/>
       <c r="E98" s="62"/>
       <c r="F98" s="40"/>
-      <c r="G98" s="150"/>
-      <c r="H98" s="151"/>
-      <c r="I98" s="151"/>
-      <c r="J98" s="152"/>
+      <c r="G98" s="149"/>
+      <c r="H98" s="150"/>
+      <c r="I98" s="150"/>
+      <c r="J98" s="151"/>
       <c r="K98" s="82"/>
       <c r="L98" s="82"/>
       <c r="M98" s="74"/>
@@ -20225,10 +20188,10 @@
       <c r="D99" s="62"/>
       <c r="E99" s="62"/>
       <c r="F99" s="40"/>
-      <c r="G99" s="150"/>
-      <c r="H99" s="151"/>
-      <c r="I99" s="151"/>
-      <c r="J99" s="152"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="151"/>
       <c r="K99" s="82"/>
       <c r="L99" s="82"/>
       <c r="M99" s="74"/>
@@ -20244,10 +20207,10 @@
       <c r="D100" s="62"/>
       <c r="E100" s="62"/>
       <c r="F100" s="40"/>
-      <c r="G100" s="150"/>
-      <c r="H100" s="151"/>
-      <c r="I100" s="151"/>
-      <c r="J100" s="152"/>
+      <c r="G100" s="149"/>
+      <c r="H100" s="150"/>
+      <c r="I100" s="150"/>
+      <c r="J100" s="151"/>
       <c r="K100" s="82"/>
       <c r="L100" s="82"/>
       <c r="M100" s="74"/>
@@ -20260,6 +20223,90 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="100">
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
@@ -20276,90 +20323,6 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048473:M1048576 M5:M100"/>
@@ -20391,8 +20354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -20408,10 +20371,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -20442,8 +20405,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -20510,7 +20473,7 @@
     <row r="6" spans="1:14" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -20581,7 +20544,7 @@
       <c r="A10" s="78"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -20655,7 +20618,7 @@
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="B15" s="43"/>
       <c r="C15" s="43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -20672,7 +20635,7 @@
     <row r="16" spans="1:14" ht="12" customHeight="1">
       <c r="B16" s="43"/>
       <c r="C16" s="43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -20689,7 +20652,7 @@
     <row r="17" spans="1:14" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -20706,7 +20669,7 @@
     <row r="18" spans="1:14" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -20723,7 +20686,7 @@
     <row r="19" spans="1:14" ht="12" customHeight="1">
       <c r="B19" s="43"/>
       <c r="C19" s="43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -20740,7 +20703,7 @@
     <row r="20" spans="1:14" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -20757,7 +20720,7 @@
     <row r="21" spans="1:14" ht="12" customHeight="1">
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -20774,7 +20737,7 @@
     <row r="22" spans="1:14" ht="12" customHeight="1">
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -20791,7 +20754,7 @@
     <row r="23" spans="1:14" ht="12" customHeight="1">
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -20808,7 +20771,7 @@
     <row r="24" spans="1:14" ht="12" customHeight="1">
       <c r="B24" s="43"/>
       <c r="C24" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
@@ -20857,7 +20820,7 @@
     <row r="27" spans="1:14" ht="12" customHeight="1">
       <c r="B27" s="43"/>
       <c r="C27" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -20906,7 +20869,7 @@
     <row r="30" spans="1:14" ht="12" customHeight="1">
       <c r="B30" s="78"/>
       <c r="C30" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -20957,7 +20920,7 @@
     <row r="33" spans="1:14" ht="12" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="84" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -20975,7 +20938,7 @@
     <row r="34" spans="1:14" ht="12" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="84" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -20993,7 +20956,7 @@
     <row r="35" spans="1:14" ht="12" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="84" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -21198,7 +21161,7 @@
     <row r="48" spans="1:14" ht="12" customHeight="1">
       <c r="A48" s="42"/>
       <c r="B48" s="84" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -21244,65 +21207,65 @@
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
     </row>
-    <row r="51" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
-      <c r="B51" s="206"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="206"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="206"/>
-      <c r="J51" s="206"/>
-      <c r="K51" s="206"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="206"/>
-      <c r="N51" s="206"/>
-    </row>
-    <row r="52" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
-      <c r="B52" s="206"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="206"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="206"/>
-      <c r="J52" s="206"/>
-      <c r="K52" s="206"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="206"/>
-      <c r="N52" s="206"/>
-    </row>
-    <row r="53" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
-      <c r="B53" s="208"/>
-      <c r="C53" s="206"/>
-      <c r="D53" s="206"/>
-      <c r="E53" s="206"/>
-      <c r="F53" s="206"/>
-      <c r="G53" s="206"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="206"/>
-      <c r="J53" s="206"/>
-      <c r="K53" s="206"/>
-      <c r="L53" s="206"/>
-      <c r="M53" s="206"/>
-      <c r="N53" s="206"/>
-    </row>
-    <row r="54" spans="1:14" s="205" customFormat="1" ht="12" customHeight="1">
-      <c r="B54" s="208"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="206"/>
-      <c r="I54" s="206"/>
-      <c r="J54" s="206"/>
-      <c r="K54" s="206"/>
-      <c r="L54" s="206"/>
-      <c r="M54" s="206"/>
-      <c r="N54" s="206"/>
+    <row r="51" spans="1:14" ht="12" customHeight="1">
+      <c r="B51" s="43"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+    </row>
+    <row r="52" spans="1:14" ht="12" customHeight="1">
+      <c r="B52" s="43"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+    </row>
+    <row r="53" spans="1:14" ht="12" customHeight="1">
+      <c r="B53" s="78"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+    </row>
+    <row r="54" spans="1:14" ht="12" customHeight="1">
+      <c r="B54" s="78"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1">
       <c r="A55" s="42"/>
@@ -21397,8 +21360,8 @@
       <c r="N60" s="43"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1">
-      <c r="B61" s="143" t="s">
-        <v>347</v>
+      <c r="B61" s="142" t="s">
+        <v>344</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="43"/>
@@ -21599,8 +21562,8 @@
       <c r="N73" s="43"/>
     </row>
     <row r="74" spans="1:14" ht="12" customHeight="1">
-      <c r="B74" s="143" t="s">
-        <v>348</v>
+      <c r="B74" s="142" t="s">
+        <v>345</v>
       </c>
       <c r="C74" s="43"/>
       <c r="D74" s="43"/>
@@ -21808,7 +21771,7 @@
     <row r="87" spans="1:14" ht="12" customHeight="1">
       <c r="A87" s="42"/>
       <c r="B87" s="84" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C87" s="43"/>
       <c r="D87" s="43"/>
@@ -22047,33 +22010,33 @@
       <c r="N101" s="43"/>
     </row>
     <row r="102" spans="1:14" ht="12" customHeight="1">
-      <c r="B102" s="199" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" s="200"/>
-      <c r="D102" s="200"/>
-      <c r="E102" s="200"/>
-      <c r="F102" s="200"/>
-      <c r="G102" s="200"/>
-      <c r="H102" s="200"/>
-      <c r="I102" s="200"/>
-      <c r="J102" s="200"/>
-      <c r="K102" s="200"/>
+      <c r="B102" s="196" t="s">
+        <v>335</v>
+      </c>
+      <c r="C102" s="197"/>
+      <c r="D102" s="197"/>
+      <c r="E102" s="197"/>
+      <c r="F102" s="197"/>
+      <c r="G102" s="197"/>
+      <c r="H102" s="197"/>
+      <c r="I102" s="197"/>
+      <c r="J102" s="197"/>
+      <c r="K102" s="197"/>
       <c r="L102" s="43"/>
       <c r="M102" s="43"/>
       <c r="N102" s="43"/>
     </row>
     <row r="103" spans="1:14" ht="12" customHeight="1">
-      <c r="B103" s="200"/>
-      <c r="C103" s="200"/>
-      <c r="D103" s="200"/>
-      <c r="E103" s="200"/>
-      <c r="F103" s="200"/>
-      <c r="G103" s="200"/>
-      <c r="H103" s="200"/>
-      <c r="I103" s="200"/>
-      <c r="J103" s="200"/>
-      <c r="K103" s="200"/>
+      <c r="B103" s="197"/>
+      <c r="C103" s="197"/>
+      <c r="D103" s="197"/>
+      <c r="E103" s="197"/>
+      <c r="F103" s="197"/>
+      <c r="G103" s="197"/>
+      <c r="H103" s="197"/>
+      <c r="I103" s="197"/>
+      <c r="J103" s="197"/>
+      <c r="K103" s="197"/>
       <c r="L103" s="43"/>
       <c r="M103" s="43"/>
       <c r="N103" s="43"/>
@@ -22116,7 +22079,7 @@
     <row r="108" spans="1:14" ht="12" customHeight="1">
       <c r="B108" s="43"/>
       <c r="C108" s="84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D108" s="43"/>
     </row>
@@ -22135,7 +22098,7 @@
     <row r="111" spans="1:14" ht="12" customHeight="1">
       <c r="B111" s="78"/>
       <c r="C111" s="84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D111" s="43"/>
     </row>
@@ -22163,7 +22126,7 @@
     <row r="115" spans="1:4" ht="12" customHeight="1">
       <c r="B115" s="43"/>
       <c r="C115" s="84" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D115" s="43"/>
     </row>
@@ -22182,7 +22145,7 @@
     <row r="118" spans="1:4" ht="12" customHeight="1">
       <c r="B118" s="78"/>
       <c r="C118" s="84" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D118" s="43"/>
     </row>
@@ -22194,7 +22157,7 @@
     </row>
     <row r="120" spans="1:4" ht="12" customHeight="1">
       <c r="A120" s="71" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B120" s="43"/>
       <c r="C120" s="84"/>
@@ -22275,10 +22238,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -22309,8 +22272,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -22724,14 +22687,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -22924,11 +22887,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="202" t="s">
+      <c r="E27" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="203"/>
-      <c r="G27" s="204"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="201"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
